--- a/raw_data/Batch_62_Main.xlsx
+++ b/raw_data/Batch_62_Main.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\TT_27 jan\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E04386-D92C-4512-BD97-051A238B19B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F6B8E4-3BC4-42D9-AB2F-642B093B0B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.TECH II SEM " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'B.TECH II SEM '!$A$1:$I$190</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'B.TECH II SEM '!$A$1:$I$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1893,9 +1893,6 @@
     </r>
   </si>
   <si>
-    <t>PA5(CS121)-CL01/TNV, MAY</t>
-  </si>
-  <si>
     <t>TA7(HS111)-TS11/MB</t>
   </si>
   <si>
@@ -2034,9 +2031,6 @@
     <t>TA15(CI121)-TS8/NSA</t>
   </si>
   <si>
-    <t>LB3,B4(HS111)-FF4/PU</t>
-  </si>
-  <si>
     <t>LB3,B4(PH211)-FF4/SPP</t>
   </si>
   <si>
@@ -2085,10 +2079,16 @@
     <t>PD2(CS121)- CL09/NEH, SOS</t>
   </si>
   <si>
-    <t>PA15,A16(CS121)-CL21,22/ JSM,PTK,PRV,KRL</t>
-  </si>
-  <si>
     <t>PB11(CS121)-CL01/AM, AW</t>
+  </si>
+  <si>
+    <t>LB3,B4(HS111)-G2/PU</t>
+  </si>
+  <si>
+    <t>PA5(CS121)-CL01/TNV, KRL</t>
+  </si>
+  <si>
+    <t>PA15,A16(CS121)-CL21,22/ JSM,PTK,PRV,MAY</t>
   </si>
 </sst>
 </file>
@@ -2426,7 +2426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2595,24 +2595,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2625,6 +2608,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2635,17 +2634,24 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2663,6 +2669,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2685,9 +2694,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2908,13 +2914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F116" sqref="F116:G116"/>
+      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2936,16 +2942,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3009,7 +3015,7 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -3021,7 +3027,7 @@
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="26"/>
@@ -3053,7 +3059,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="45" t="s">
         <v>223</v>
       </c>
@@ -3063,7 +3069,7 @@
       <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
@@ -3093,7 +3099,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
@@ -3103,7 +3109,7 @@
       <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="78"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="45" t="s">
         <v>24</v>
       </c>
@@ -3133,7 +3139,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="45" t="s">
         <v>27</v>
       </c>
@@ -3143,7 +3149,7 @@
       <c r="D6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
@@ -3173,7 +3179,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="45" t="s">
         <v>33</v>
       </c>
@@ -3183,7 +3189,7 @@
       <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="23" t="s">
         <v>41</v>
       </c>
@@ -3212,7 +3218,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="45" t="s">
         <v>38</v>
       </c>
@@ -3222,7 +3228,7 @@
       <c r="D8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="23" t="s">
         <v>47</v>
       </c>
@@ -3252,17 +3258,17 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="23" t="s">
         <v>53</v>
       </c>
@@ -3294,7 +3300,7 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="45" t="s">
         <v>558</v>
       </c>
@@ -3304,9 +3310,9 @@
       <c r="D10" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="53" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>48</v>
@@ -3336,7 +3342,7 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="49"/>
       <c r="C11" s="23" t="s">
         <v>51</v>
@@ -3344,7 +3350,7 @@
       <c r="D11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="78"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="55" t="s">
         <v>593</v>
       </c>
@@ -3375,7 +3381,7 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="47" t="s">
         <v>559</v>
       </c>
@@ -3385,7 +3391,7 @@
       <c r="D12" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="78"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="23" t="s">
         <v>594</v>
       </c>
@@ -3415,7 +3421,7 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="45" t="s">
         <v>560</v>
       </c>
@@ -3425,7 +3431,7 @@
       <c r="D13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
         <v>61</v>
@@ -3453,9 +3459,9 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>63</v>
@@ -3463,7 +3469,7 @@
       <c r="D14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -3489,15 +3495,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="27"/>
       <c r="C15" s="23" t="s">
         <v>551</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>622</v>
-      </c>
-      <c r="E15" s="78"/>
+        <v>621</v>
+      </c>
+      <c r="E15" s="80"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -3523,13 +3529,12 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="27"/>
       <c r="C16" s="23" t="s">
-        <v>638</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="78"/>
+        <v>636</v>
+      </c>
+      <c r="E16" s="80"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -3553,25 +3558,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="71" t="s">
-        <v>67</v>
+      <c r="C17" s="53" t="s">
+        <v>649</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="72"/>
-      <c r="H17" s="71" t="s">
-        <v>69</v>
-      </c>
+      <c r="H17" s="71"/>
       <c r="I17" s="72"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -3587,21 +3588,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="72"/>
+      <c r="C18" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="83"/>
+      <c r="H18" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="83"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3621,21 +3622,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="80" t="s">
-        <v>602</v>
-      </c>
-      <c r="I19" s="72"/>
+      <c r="C19" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="83"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="83"/>
+      <c r="H19" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="83"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3655,25 +3656,25 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="75" t="s">
-        <v>639</v>
-      </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="80" t="s">
-        <v>605</v>
-      </c>
-      <c r="I20" s="72"/>
+      <c r="C20" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="83"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="H20" s="84" t="s">
+        <v>602</v>
+      </c>
+      <c r="I20" s="83"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3689,21 +3690,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="75" t="s">
-        <v>642</v>
-      </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="71" t="s">
-        <v>627</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="72"/>
+      <c r="C21" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="85" t="s">
+        <v>637</v>
+      </c>
+      <c r="G21" s="86"/>
+      <c r="H21" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="I21" s="83"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3722,22 +3723,22 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="72"/>
+      <c r="C22" s="85" t="s">
+        <v>640</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="82" t="s">
+        <v>626</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="83"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3757,21 +3758,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="72"/>
+      <c r="C23" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="83"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3791,21 +3792,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="72"/>
+      <c r="C24" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="83"/>
+      <c r="H24" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="83"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3825,21 +3826,25 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="C25" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="83"/>
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3854,20 +3859,22 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="78"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="83"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3882,34 +3889,16 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>94</v>
-      </c>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -3928,29 +3917,33 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+    <row r="28" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>87</v>
+      </c>
       <c r="B28" s="47" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="78"/>
+        <v>90</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>532</v>
+        <v>329</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
@@ -3971,27 +3964,29 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="57" t="s">
-        <v>614</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="I29" s="27"/>
+        <v>532</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>112</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -4011,25 +4006,25 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="E30" s="80"/>
+      <c r="F30" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="2"/>
@@ -4051,25 +4046,27 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>546</v>
+        <v>105</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>106</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="78"/>
+        <v>107</v>
+      </c>
+      <c r="E31" s="80"/>
       <c r="F31" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="49"/>
+        <v>604</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="H31" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="I31" s="23"/>
+        <v>554</v>
+      </c>
+      <c r="I31" s="27"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -4089,23 +4086,23 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="53" t="s">
-        <v>607</v>
+      <c r="A32" s="77"/>
+      <c r="B32" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>546</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="78"/>
+        <v>110</v>
+      </c>
+      <c r="E32" s="80"/>
       <c r="F32" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>115</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G32" s="49"/>
       <c r="H32" s="23" t="s">
-        <v>116</v>
+        <v>608</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="2"/>
@@ -4127,22 +4124,24 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="C33" s="26"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="53" t="s">
+        <v>606</v>
+      </c>
       <c r="D33" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="E33" s="78"/>
+        <v>113</v>
+      </c>
+      <c r="E33" s="80"/>
       <c r="F33" s="23" t="s">
-        <v>516</v>
+        <v>114</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="H33" s="49"/>
+        <v>115</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>116</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
@@ -4163,23 +4162,23 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C34" s="26"/>
-      <c r="D34" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="E34" s="78"/>
+      <c r="D34" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E34" s="80"/>
       <c r="F34" s="23" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="26"/>
+        <v>518</v>
+      </c>
+      <c r="H34" s="49"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -4199,21 +4198,23 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="D35" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="E35" s="78"/>
+      <c r="D35" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="E35" s="80"/>
       <c r="F35" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="23"/>
+        <v>517</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -4233,20 +4234,21 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="78"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="E36" s="80"/>
       <c r="F36" s="23" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="I36" s="27"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -4266,23 +4268,18 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>121</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E37" s="80"/>
+      <c r="F37" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="G37" s="26"/>
       <c r="H37" s="23" t="s">
-        <v>122</v>
+        <v>603</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="2"/>
@@ -4304,23 +4301,23 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="78"/>
+        <v>118</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="80"/>
       <c r="F38" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="2"/>
@@ -4342,21 +4339,23 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="80"/>
+      <c r="F39" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="2"/>
@@ -4378,19 +4377,21 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="27"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="80"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="H40" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="2"/>
@@ -4412,15 +4413,20 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="23"/>
+      <c r="C41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="24"/>
+        <v>133</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>134</v>
+      </c>
       <c r="I41" s="27"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
@@ -4441,17 +4447,16 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -4471,21 +4476,17 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="I43" s="72"/>
+      <c r="C43" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="83"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4505,21 +4506,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="80" t="s">
-        <v>601</v>
-      </c>
-      <c r="G44" s="72"/>
-      <c r="H44" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I44" s="72"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="83"/>
+      <c r="H44" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="83"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4539,21 +4540,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="80" t="s">
-        <v>599</v>
-      </c>
-      <c r="G45" s="72"/>
-      <c r="H45" s="80" t="s">
-        <v>597</v>
-      </c>
-      <c r="I45" s="72"/>
+      <c r="C45" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="83"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="84" t="s">
+        <v>601</v>
+      </c>
+      <c r="G45" s="83"/>
+      <c r="H45" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="83"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4573,21 +4574,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="71" t="s">
-        <v>628</v>
-      </c>
-      <c r="G46" s="72"/>
-      <c r="H46" s="75" t="s">
-        <v>646</v>
-      </c>
-      <c r="I46" s="76"/>
+      <c r="C46" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="83"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="84" t="s">
+        <v>599</v>
+      </c>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84" t="s">
+        <v>597</v>
+      </c>
+      <c r="I46" s="83"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4607,21 +4608,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="71" t="s">
-        <v>629</v>
-      </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="72"/>
-      <c r="H47" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="72"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="83"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="82" t="s">
+        <v>627</v>
+      </c>
+      <c r="G47" s="83"/>
+      <c r="H47" s="85" t="s">
+        <v>644</v>
+      </c>
+      <c r="I47" s="86"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4641,21 +4642,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="72"/>
-      <c r="H48" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" s="72"/>
+      <c r="C48" s="82" t="s">
+        <v>628</v>
+      </c>
+      <c r="D48" s="83"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="83"/>
+      <c r="H48" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="83"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4675,21 +4676,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="72"/>
-      <c r="H49" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="I49" s="72"/>
+      <c r="C49" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="83"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="83"/>
+      <c r="H49" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="83"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4709,17 +4710,21 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="I50" s="72"/>
+      <c r="C50" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="83"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="83"/>
+      <c r="H50" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="83"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4739,17 +4744,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="87"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="79"/>
+      <c r="E51" s="80"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="I51" s="72"/>
+      <c r="H51" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="83"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4768,16 +4773,18 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" s="83"/>
       <c r="J52" s="2"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -4796,32 +4803,16 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>621</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>15</v>
-      </c>
+    <row r="53" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="2"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4841,25 +4832,30 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
+      <c r="A54" s="76" t="s">
+        <v>154</v>
+      </c>
       <c r="B54" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="95"/>
-      <c r="F54" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>158</v>
+        <v>541</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>159</v>
+        <v>620</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="3"/>
@@ -4880,25 +4876,25 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="95"/>
-      <c r="F55" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>24</v>
+        <v>156</v>
+      </c>
+      <c r="E55" s="96"/>
+      <c r="F55" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="3"/>
@@ -4919,28 +4915,25 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="23" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>542</v>
+        <v>160</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" s="95"/>
+        <v>161</v>
+      </c>
+      <c r="E56" s="96"/>
       <c r="F56" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>635</v>
+        <v>162</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="3"/>
@@ -4961,24 +4954,28 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>542</v>
+      </c>
       <c r="D57" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="95"/>
+        <v>164</v>
+      </c>
+      <c r="E57" s="96"/>
       <c r="F57" s="23" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>168</v>
+        <v>532</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4999,20 +4996,25 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="23"/>
-      <c r="D58" s="53" t="s">
-        <v>640</v>
-      </c>
-      <c r="E58" s="95"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="96"/>
       <c r="F58" s="23" t="s">
-        <v>555</v>
+        <v>116</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>592</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -5032,19 +5034,17 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
-      <c r="C59" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59" s="95"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="23"/>
+      <c r="D59" s="53" t="s">
+        <v>638</v>
+      </c>
+      <c r="E59" s="96"/>
       <c r="F59" s="23" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>521</v>
+        <v>172</v>
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
@@ -5066,27 +5066,22 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
-      <c r="B60" s="23" t="s">
-        <v>626</v>
-      </c>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="77"/>
       <c r="C60" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="95"/>
+        <v>176</v>
+      </c>
+      <c r="E60" s="96"/>
       <c r="F60" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>177</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="H60" s="26"/>
       <c r="I60" s="26"/>
       <c r="J60" s="2"/>
       <c r="K60" s="3"/>
@@ -5106,21 +5101,26 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
+    <row r="61" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="77"/>
       <c r="B61" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="95"/>
-      <c r="G61" s="23"/>
+        <v>625</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="96"/>
+      <c r="F61" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>522</v>
+      </c>
       <c r="H61" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I61" s="26"/>
       <c r="J61" s="2"/>
@@ -5142,21 +5142,20 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="86"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="23" t="s">
-        <v>617</v>
+        <v>174</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" s="95"/>
-      <c r="F62" s="23"/>
+        <v>175</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="96"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I62" s="26"/>
       <c r="J62" s="2"/>
@@ -5178,27 +5177,23 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="86"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>182</v>
+        <v>616</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="95"/>
+        <v>185</v>
+      </c>
+      <c r="E63" s="96"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="G63" s="23"/>
       <c r="H63" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>188</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="I63" s="26"/>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -5218,22 +5213,27 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
-      <c r="B64" s="48" t="s">
-        <v>565</v>
+      <c r="A64" s="77"/>
+      <c r="B64" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="E64" s="95"/>
+        <v>182</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="96"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="I64" s="24"/>
+        <v>187</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -5253,23 +5253,22 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
-      <c r="B65" s="23" t="s">
-        <v>566</v>
+      <c r="A65" s="77"/>
+      <c r="B65" s="48" t="s">
+        <v>565</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="E65" s="95"/>
+        <v>567</v>
+      </c>
+      <c r="E65" s="96"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+        <v>190</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" s="24"/>
       <c r="J65" s="2"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -5289,20 +5288,23 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="58" t="s">
-        <v>616</v>
-      </c>
-      <c r="E66" s="95"/>
-      <c r="F66" s="23" t="s">
-        <v>193</v>
-      </c>
+      <c r="A66" s="77"/>
+      <c r="B66" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E66" s="96"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="24"/>
+        <v>192</v>
+      </c>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
       <c r="J66" s="2"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -5322,12 +5324,18 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="27"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E67" s="96"/>
+      <c r="F67" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>194</v>
+      </c>
       <c r="H67" s="23"/>
       <c r="I67" s="24"/>
       <c r="J67" s="2"/>
@@ -5349,19 +5357,14 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
+      <c r="A68" s="77"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="88" t="s">
-        <v>585</v>
-      </c>
-      <c r="G68" s="73"/>
-      <c r="H68" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I68" s="73"/>
+      <c r="C68" s="27"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5381,21 +5384,19 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="73"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="G69" s="73"/>
-      <c r="H69" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="I69" s="73"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="87" t="s">
+        <v>585</v>
+      </c>
+      <c r="G69" s="91"/>
+      <c r="H69" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" s="91"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5415,21 +5416,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="G70" s="73"/>
-      <c r="H70" s="75" t="s">
-        <v>606</v>
-      </c>
-      <c r="I70" s="76"/>
+      <c r="C70" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="91"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="G70" s="91"/>
+      <c r="H70" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="I70" s="91"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5449,21 +5450,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="75" t="s">
-        <v>647</v>
-      </c>
-      <c r="G71" s="76"/>
-      <c r="H71" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="I71" s="73"/>
+      <c r="A71" s="77"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="91"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="G71" s="91"/>
+      <c r="H71" s="85" t="s">
+        <v>650</v>
+      </c>
+      <c r="I71" s="86"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5483,19 +5484,21 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="I72" s="73"/>
+      <c r="C72" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="91"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="85" t="s">
+        <v>645</v>
+      </c>
+      <c r="G72" s="86"/>
+      <c r="H72" s="84" t="s">
+        <v>547</v>
+      </c>
+      <c r="I72" s="91"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5515,21 +5518,19 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" s="73"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="G73" s="73"/>
-      <c r="H73" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="I73" s="73"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="91"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="I73" s="91"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5549,21 +5550,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="D74" s="73"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="G74" s="73"/>
-      <c r="H74" s="71" t="s">
-        <v>618</v>
-      </c>
-      <c r="I74" s="73"/>
+      <c r="C74" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="91"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="91"/>
+      <c r="H74" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" s="91"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5583,19 +5584,21 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" s="73"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="G75" s="73"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
+      <c r="C75" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="91"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" s="91"/>
+      <c r="H75" s="82" t="s">
+        <v>617</v>
+      </c>
+      <c r="I75" s="91"/>
       <c r="J75" s="2"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -5615,17 +5618,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="86"/>
+      <c r="A76" s="77"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="73"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="G76" s="73"/>
+      <c r="C76" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="91"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" s="91"/>
       <c r="H76" s="26"/>
       <c r="I76" s="26"/>
       <c r="J76" s="2"/>
@@ -5647,15 +5650,17 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="87"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D77" s="73"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="91"/>
       <c r="E77" s="96"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="F77" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" s="91"/>
       <c r="H77" s="26"/>
       <c r="I77" s="26"/>
       <c r="J77" s="2"/>
@@ -5676,16 +5681,18 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="78"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="91"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
       <c r="J78" s="2"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -5704,37 +5711,19 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="G79" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="61" t="s">
-        <v>641</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>636</v>
-      </c>
+    <row r="79" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="2"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="11"/>
+      <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -5750,29 +5739,33 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
+    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="76" t="s">
+        <v>214</v>
+      </c>
       <c r="B80" s="23" t="s">
-        <v>523</v>
+        <v>20</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="78"/>
+        <v>13</v>
+      </c>
+      <c r="E80" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="F80" s="23" t="s">
-        <v>327</v>
+        <v>531</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>215</v>
+        <v>11</v>
+      </c>
+      <c r="H80" s="61" t="s">
+        <v>639</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5793,28 +5786,28 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="78"/>
+        <v>19</v>
+      </c>
+      <c r="E81" s="80"/>
       <c r="F81" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G81" s="45" t="s">
-        <v>29</v>
+        <v>327</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="I81" s="56" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>544</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5835,25 +5828,29 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="55" t="s">
-        <v>222</v>
+      <c r="A82" s="77"/>
+      <c r="B82" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E82" s="78"/>
-      <c r="F82" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="23" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="E82" s="80"/>
+      <c r="F82" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="I82" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>218</v>
+      </c>
       <c r="J82" s="2"/>
       <c r="K82" s="3"/>
       <c r="L82" s="11"/>
@@ -5873,25 +5870,23 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="86"/>
-      <c r="B83" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>226</v>
+      <c r="A83" s="77"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="55" t="s">
+        <v>222</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E83" s="78"/>
-      <c r="F83" s="23" t="s">
-        <v>34</v>
+        <v>220</v>
+      </c>
+      <c r="E83" s="80"/>
+      <c r="F83" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I83" s="26"/>
       <c r="J83" s="2"/>
@@ -5913,27 +5908,27 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
+      <c r="A84" s="77"/>
       <c r="B84" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>525</v>
+        <v>219</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E84" s="78"/>
-      <c r="F84" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="63" t="s">
-        <v>527</v>
-      </c>
-      <c r="H84" s="63" t="s">
-        <v>573</v>
-      </c>
-      <c r="I84" s="64"/>
+        <v>223</v>
+      </c>
+      <c r="E84" s="80"/>
+      <c r="F84" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="I84" s="26"/>
       <c r="J84" s="2"/>
       <c r="K84" s="3"/>
       <c r="L84" s="11"/>
@@ -5953,24 +5948,27 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="23" t="s">
-        <v>225</v>
+        <v>618</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>525</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E85" s="97"/>
-      <c r="F85" s="66" t="s">
-        <v>526</v>
-      </c>
-      <c r="G85" s="66" t="s">
-        <v>529</v>
-      </c>
-      <c r="H85" s="66" t="s">
-        <v>623</v>
-      </c>
-      <c r="I85" s="67"/>
+        <v>227</v>
+      </c>
+      <c r="E85" s="80"/>
+      <c r="F85" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="H85" s="63" t="s">
+        <v>573</v>
+      </c>
+      <c r="I85" s="64"/>
       <c r="J85" s="2"/>
       <c r="K85" s="3"/>
       <c r="L85" s="11"/>
@@ -5990,28 +5988,27 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E86" s="97"/>
+        <v>229</v>
+      </c>
+      <c r="E86" s="98"/>
       <c r="F86" s="66" t="s">
-        <v>528</v>
-      </c>
-      <c r="G86" s="68"/>
-      <c r="H86" s="107" t="s">
-        <v>643</v>
-      </c>
-      <c r="I86" s="108"/>
+        <v>526</v>
+      </c>
+      <c r="G86" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="H86" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="I86" s="67"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="L86" s="11"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -6028,25 +6025,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="86"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E87" s="97"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66" t="s">
-        <v>625</v>
-      </c>
-      <c r="H87" s="92" t="s">
-        <v>236</v>
-      </c>
-      <c r="I87" s="93"/>
+        <v>231</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" s="98"/>
+      <c r="F87" s="66" t="s">
+        <v>528</v>
+      </c>
+      <c r="G87" s="68"/>
+      <c r="H87" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="I87" s="111"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -6066,25 +6063,23 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
+      <c r="A88" s="77"/>
       <c r="B88" s="23" t="s">
-        <v>570</v>
+        <v>230</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E88" s="97"/>
-      <c r="F88" s="66" t="s">
-        <v>239</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E88" s="98"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="66" t="s">
-        <v>240</v>
+        <v>624</v>
       </c>
       <c r="H88" s="92" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I88" s="93"/>
       <c r="J88" s="2"/>
@@ -6106,23 +6101,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="86"/>
-      <c r="B89" s="55" t="s">
-        <v>571</v>
+      <c r="A89" s="77"/>
+      <c r="B89" s="23" t="s">
+        <v>570</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="E89" s="97"/>
+        <v>238</v>
+      </c>
+      <c r="E89" s="98"/>
       <c r="F89" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="G89" s="67"/>
+        <v>239</v>
+      </c>
+      <c r="G89" s="66" t="s">
+        <v>240</v>
+      </c>
       <c r="H89" s="92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I89" s="93"/>
       <c r="J89" s="2"/>
@@ -6144,23 +6141,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
-      <c r="B90" s="53" t="s">
-        <v>645</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>624</v>
-      </c>
-      <c r="D90" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="E90" s="97"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="E90" s="98"/>
       <c r="F90" s="66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G90" s="67"/>
       <c r="H90" s="92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I90" s="93"/>
       <c r="J90" s="2"/>
@@ -6182,19 +6179,25 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="86"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="E91" s="97"/>
-      <c r="F91" s="66"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="53" t="s">
+        <v>643</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="E91" s="98"/>
+      <c r="F91" s="66" t="s">
+        <v>245</v>
+      </c>
       <c r="G91" s="67"/>
-      <c r="H91" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="I91" s="74"/>
+      <c r="H91" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="I91" s="93"/>
       <c r="J91" s="2"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -6214,19 +6217,19 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="86"/>
+      <c r="A92" s="77"/>
       <c r="B92" s="49"/>
       <c r="C92" s="54"/>
-      <c r="D92" s="55" t="s">
-        <v>613</v>
-      </c>
-      <c r="E92" s="97"/>
+      <c r="D92" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E92" s="98"/>
       <c r="F92" s="66"/>
       <c r="G92" s="67"/>
       <c r="H92" s="94" t="s">
-        <v>598</v>
-      </c>
-      <c r="I92" s="93"/>
+        <v>249</v>
+      </c>
+      <c r="I92" s="94"/>
       <c r="J92" s="2"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -6246,19 +6249,17 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="86"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="97"/>
-      <c r="F93" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="G93" s="93"/>
-      <c r="H93" s="92" t="s">
-        <v>587</v>
+      <c r="A93" s="77"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="E93" s="98"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="100" t="s">
+        <v>598</v>
       </c>
       <c r="I93" s="93"/>
       <c r="J93" s="2"/>
@@ -6280,24 +6281,22 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="26"/>
-      <c r="C94" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="D94" s="72"/>
-      <c r="E94" s="97"/>
+      <c r="C94" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="83"/>
+      <c r="E94" s="98"/>
       <c r="F94" s="92" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G94" s="93"/>
-      <c r="H94" s="69" t="s">
-        <v>648</v>
-      </c>
-      <c r="I94" s="70"/>
-      <c r="J94" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="H94" s="92" t="s">
+        <v>587</v>
+      </c>
+      <c r="I94" s="93"/>
+      <c r="J94" s="2"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -6316,20 +6315,24 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="86"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="26"/>
-      <c r="C95" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="D95" s="72"/>
-      <c r="E95" s="97"/>
+      <c r="C95" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D95" s="83"/>
+      <c r="E95" s="98"/>
       <c r="F95" s="92" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G95" s="93"/>
-      <c r="H95" s="70"/>
+      <c r="H95" s="69" t="s">
+        <v>646</v>
+      </c>
       <c r="I95" s="70"/>
-      <c r="J95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -6348,19 +6351,19 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="86"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="26"/>
-      <c r="C96" s="71" t="s">
-        <v>620</v>
-      </c>
-      <c r="D96" s="72"/>
-      <c r="E96" s="97"/>
+      <c r="C96" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="83"/>
+      <c r="E96" s="98"/>
       <c r="F96" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G96" s="93"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
       <c r="J96" s="2"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -6380,15 +6383,15 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="86"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="D97" s="72"/>
-      <c r="E97" s="97"/>
-      <c r="F97" s="74" t="s">
-        <v>257</v>
+      <c r="C97" s="82" t="s">
+        <v>619</v>
+      </c>
+      <c r="D97" s="83"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="92" t="s">
+        <v>255</v>
       </c>
       <c r="G97" s="93"/>
       <c r="H97" s="67"/>
@@ -6412,15 +6415,15 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="86"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="71" t="s">
-        <v>630</v>
-      </c>
-      <c r="D98" s="72"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="74" t="s">
-        <v>258</v>
+      <c r="A98" s="77"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="83"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="94" t="s">
+        <v>257</v>
       </c>
       <c r="G98" s="93"/>
       <c r="H98" s="67"/>
@@ -6444,17 +6447,17 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="86"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="23"/>
-      <c r="C99" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="D99" s="72"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="107" t="s">
-        <v>651</v>
-      </c>
-      <c r="G99" s="108"/>
+      <c r="C99" s="82" t="s">
+        <v>629</v>
+      </c>
+      <c r="D99" s="83"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="G99" s="93"/>
       <c r="H99" s="67"/>
       <c r="I99" s="67"/>
       <c r="J99" s="2"/>
@@ -6476,16 +6479,17 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="86"/>
-      <c r="B100" s="80" t="s">
-        <v>595</v>
-      </c>
-      <c r="C100" s="72"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="G100" s="93"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D100" s="83"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="110" t="s">
+        <v>648</v>
+      </c>
+      <c r="G100" s="111"/>
       <c r="H100" s="67"/>
       <c r="I100" s="67"/>
       <c r="J100" s="2"/>
@@ -6506,19 +6510,18 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="87"/>
-      <c r="B101" s="89" t="s">
-        <v>584</v>
-      </c>
-      <c r="C101" s="111"/>
-      <c r="D101" s="27"/>
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="77"/>
+      <c r="B101" s="84" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" s="83"/>
       <c r="E101" s="98"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="H101" s="93"/>
+      <c r="F101" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="G101" s="93"/>
+      <c r="H101" s="67"/>
       <c r="I101" s="67"/>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
@@ -6538,16 +6541,20 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
+    <row r="102" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="78"/>
+      <c r="B102" s="88" t="s">
+        <v>584</v>
+      </c>
+      <c r="C102" s="114"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="H102" s="93"/>
+      <c r="I102" s="67"/>
       <c r="J102" s="2"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -6566,29 +6573,16 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="C103" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="D103" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="E103" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="28"/>
-      <c r="H103" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="I103" s="23" t="s">
-        <v>90</v>
-      </c>
+    <row r="103" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
       <c r="J103" s="2"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -6608,25 +6602,27 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="86"/>
-      <c r="B104" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>543</v>
+      <c r="A104" s="76" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" s="48" t="s">
+        <v>545</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="E104" s="113"/>
+        <v>532</v>
+      </c>
+      <c r="E104" s="115" t="s">
+        <v>12</v>
+      </c>
       <c r="F104" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>266</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G104" s="28"/>
       <c r="H104" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="3"/>
@@ -6646,33 +6642,30 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="86"/>
+    <row r="105" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="77"/>
       <c r="B105" s="29" t="s">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D105" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="E105" s="113"/>
+        <v>543</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="E105" s="116"/>
       <c r="F105" s="45" t="s">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="I105" s="48" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="11"/>
+      <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
@@ -6689,28 +6682,28 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="86"/>
+      <c r="A106" s="77"/>
       <c r="B106" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="C106" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D106" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E106" s="113"/>
+        <v>41</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D106" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" s="116"/>
       <c r="F106" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="H106" s="53" t="s">
-        <v>634</v>
-      </c>
-      <c r="I106" s="29" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="I106" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
@@ -6731,28 +6724,25 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="86"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>268</v>
+        <v>548</v>
+      </c>
+      <c r="C107" s="58" t="s">
+        <v>265</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E107" s="113"/>
-      <c r="F107" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>278</v>
+        <v>104</v>
+      </c>
+      <c r="E107" s="116"/>
+      <c r="F107" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="H107" s="53" t="s">
+        <v>632</v>
       </c>
       <c r="I107" s="29" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
@@ -6773,29 +6763,32 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="86"/>
+      <c r="A108" s="77"/>
       <c r="B108" s="29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="E108" s="113"/>
-      <c r="F108" s="24" t="s">
-        <v>283</v>
+        <v>275</v>
+      </c>
+      <c r="E108" s="116"/>
+      <c r="F108" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>285</v>
+        <v>278</v>
+      </c>
+      <c r="I108" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
+      <c r="L108" s="11"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -6811,28 +6804,27 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="86"/>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="77"/>
       <c r="B109" s="29" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="E109" s="113"/>
-      <c r="F109" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="G109" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H109" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="I109" s="60"/>
+        <v>282</v>
+      </c>
+      <c r="E109" s="116"/>
+      <c r="F109" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>285</v>
+      </c>
       <c r="J109" s="2"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -6851,28 +6843,28 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="86"/>
+    <row r="110" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="77"/>
       <c r="B110" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="E110" s="113"/>
+        <v>533</v>
+      </c>
+      <c r="E110" s="116"/>
       <c r="F110" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H110" s="71" t="s">
-        <v>304</v>
-      </c>
-      <c r="I110" s="72"/>
+        <v>288</v>
+      </c>
+      <c r="G110" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="I110" s="60"/>
       <c r="J110" s="2"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -6892,25 +6884,27 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="86"/>
-      <c r="B111" s="58" t="s">
-        <v>295</v>
+      <c r="A111" s="77"/>
+      <c r="B111" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="E111" s="113"/>
-      <c r="F111" s="26"/>
+        <v>534</v>
+      </c>
+      <c r="E111" s="116"/>
+      <c r="F111" s="23" t="s">
+        <v>293</v>
+      </c>
       <c r="G111" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="H111" s="71" t="s">
-        <v>307</v>
-      </c>
-      <c r="I111" s="72"/>
+        <v>294</v>
+      </c>
+      <c r="H111" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="I111" s="83"/>
       <c r="J111" s="2"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -6930,24 +6924,25 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="86"/>
+      <c r="A112" s="77"/>
       <c r="B112" s="58" t="s">
-        <v>574</v>
+        <v>295</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="E112" s="113"/>
-      <c r="F112" s="23" t="s">
-        <v>299</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="E112" s="116"/>
+      <c r="F112" s="26"/>
       <c r="G112" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="H112" s="80" t="s">
-        <v>608</v>
-      </c>
-      <c r="I112" s="72"/>
+        <v>297</v>
+      </c>
+      <c r="H112" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="I112" s="83"/>
       <c r="J112" s="2"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -6967,23 +6962,24 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="86"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="77"/>
+      <c r="B113" s="58" t="s">
+        <v>574</v>
+      </c>
       <c r="C113" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="D113" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E113" s="113"/>
-      <c r="F113" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="I113" s="72"/>
+        <v>298</v>
+      </c>
+      <c r="E113" s="116"/>
+      <c r="F113" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="H113" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="I113" s="83"/>
       <c r="J113" s="2"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -7003,22 +6999,23 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
-      <c r="B114" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="E114" s="113"/>
+      <c r="A114" s="77"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="D114" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E114" s="116"/>
       <c r="F114" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G114" s="26"/>
-      <c r="H114" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="I114" s="72"/>
+      <c r="H114" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="I114" s="83"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -7038,25 +7035,22 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="86"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="E115" s="113"/>
+        <v>301</v>
+      </c>
+      <c r="E115" s="116"/>
       <c r="F115" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="G115" s="23"/>
-      <c r="H115" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="I115" s="72"/>
+        <v>581</v>
+      </c>
+      <c r="G115" s="26"/>
+      <c r="H115" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="I115" s="83"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -7076,23 +7070,25 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="86"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="23" t="s">
-        <v>610</v>
+      <c r="A116" s="77"/>
+      <c r="B116" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>589</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="E116" s="113"/>
-      <c r="F116" s="75" t="s">
-        <v>650</v>
-      </c>
-      <c r="G116" s="76"/>
-      <c r="H116" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="I116" s="73"/>
+        <v>577</v>
+      </c>
+      <c r="E116" s="116"/>
+      <c r="F116" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="G116" s="23"/>
+      <c r="H116" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="I116" s="83"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -7112,17 +7108,23 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="86"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="D117" s="73"/>
-      <c r="E117" s="113"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="110"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="72"/>
+      <c r="A117" s="77"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="E117" s="116"/>
+      <c r="F117" s="85" t="s">
+        <v>651</v>
+      </c>
+      <c r="G117" s="86"/>
+      <c r="H117" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="I117" s="91"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -7142,19 +7144,17 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="86"/>
+      <c r="A118" s="77"/>
       <c r="B118" s="26"/>
-      <c r="C118" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="D118" s="73"/>
-      <c r="E118" s="113"/>
-      <c r="F118" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="G118" s="73"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="72"/>
+      <c r="C118" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="D118" s="91"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="113"/>
+      <c r="H118" s="82"/>
+      <c r="I118" s="83"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7174,19 +7174,19 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="86"/>
-      <c r="B119" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="C119" s="73"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="113"/>
-      <c r="F119" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="G119" s="73"/>
-      <c r="H119" s="99"/>
-      <c r="I119" s="72"/>
+      <c r="A119" s="77"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" s="91"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="G119" s="91"/>
+      <c r="H119" s="82"/>
+      <c r="I119" s="83"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7206,19 +7206,19 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="86"/>
-      <c r="B120" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="C120" s="73"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="G120" s="73"/>
-      <c r="H120" s="99"/>
-      <c r="I120" s="72"/>
+      <c r="A120" s="77"/>
+      <c r="B120" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="C120" s="91"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="G120" s="91"/>
+      <c r="H120" s="101"/>
+      <c r="I120" s="83"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7238,19 +7238,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
-      <c r="B121" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="C121" s="73"/>
+      <c r="A121" s="77"/>
+      <c r="B121" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="C121" s="91"/>
       <c r="D121" s="26"/>
-      <c r="E121" s="113"/>
-      <c r="F121" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="G121" s="73"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="72"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G121" s="91"/>
+      <c r="H121" s="101"/>
+      <c r="I121" s="83"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7270,19 +7270,19 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="86"/>
-      <c r="B122" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="C122" s="73"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="113"/>
-      <c r="F122" s="81" t="s">
-        <v>317</v>
-      </c>
-      <c r="G122" s="73"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="72"/>
+      <c r="A122" s="77"/>
+      <c r="B122" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" s="91"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="116"/>
+      <c r="F122" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G122" s="91"/>
+      <c r="H122" s="82"/>
+      <c r="I122" s="83"/>
       <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -7302,17 +7302,19 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="86"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="23"/>
+      <c r="A123" s="77"/>
+      <c r="B123" s="82" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" s="91"/>
       <c r="D123" s="27"/>
-      <c r="E123" s="113"/>
-      <c r="F123" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="G123" s="73"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="73"/>
+      <c r="E123" s="116"/>
+      <c r="F123" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="G123" s="91"/>
+      <c r="H123" s="82"/>
+      <c r="I123" s="83"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -7332,17 +7334,17 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="26"/>
+      <c r="A124" s="77"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="23"/>
       <c r="D124" s="27"/>
-      <c r="E124" s="114"/>
-      <c r="F124" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
+      <c r="E124" s="116"/>
+      <c r="F124" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="G124" s="91"/>
+      <c r="H124" s="82"/>
+      <c r="I124" s="91"/>
       <c r="J124" s="2"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -7362,19 +7364,17 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="109" t="s">
-        <v>322</v>
-      </c>
-      <c r="E125" s="84"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="H125" s="73"/>
-      <c r="I125" s="8"/>
+      <c r="A125" s="77"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="117"/>
+      <c r="F125" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G125" s="26"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
       <c r="J125" s="2"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -7394,21 +7394,23 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="86"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="109" t="s">
-        <v>324</v>
-      </c>
-      <c r="E126" s="84"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="9"/>
+      <c r="A126" s="77"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="E126" s="75"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="82" t="s">
+        <v>323</v>
+      </c>
+      <c r="H126" s="91"/>
+      <c r="I126" s="8"/>
       <c r="J126" s="2"/>
       <c r="K126" s="3"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
@@ -7424,16 +7426,16 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="87"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="E127" s="73"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="A127" s="77"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="112" t="s">
+        <v>324</v>
+      </c>
+      <c r="E127" s="75"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
       <c r="I127" s="9"/>
       <c r="J127" s="2"/>
       <c r="K127" s="3"/>
@@ -7453,20 +7455,22 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="78"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" s="91"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
       <c r="J128" s="2"/>
       <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
@@ -7481,20 +7485,16 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="85" t="s">
-        <v>326</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="E129" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F129" s="101"/>
-      <c r="G129" s="102"/>
-      <c r="H129" s="73"/>
-      <c r="I129" s="8"/>
+    <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
       <c r="J129" s="2"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -7513,23 +7513,19 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="86"/>
-      <c r="B130" s="25" t="s">
-        <v>536</v>
+    <row r="130" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="76" t="s">
+        <v>326</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="32"/>
+        <v>328</v>
+      </c>
+      <c r="F130" s="103"/>
+      <c r="G130" s="104"/>
+      <c r="H130" s="91"/>
       <c r="I130" s="8"/>
       <c r="J130" s="2"/>
       <c r="K130" s="3"/>
@@ -7550,18 +7546,18 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="86"/>
-      <c r="B131" s="23" t="s">
-        <v>113</v>
+      <c r="A131" s="77"/>
+      <c r="B131" s="25" t="s">
+        <v>536</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -7586,12 +7582,18 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="86"/>
+      <c r="A132" s="77"/>
       <c r="B132" s="23" t="s">
-        <v>333</v>
+        <v>113</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -7616,13 +7618,12 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="86"/>
+      <c r="A133" s="77"/>
       <c r="B133" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>334</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -7647,13 +7648,13 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="86"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E134" s="23" t="s">
-        <v>611</v>
+      <c r="A134" s="77"/>
+      <c r="B134" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C134" s="28"/>
+      <c r="D134" s="23" t="s">
+        <v>336</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -7678,10 +7679,14 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="86"/>
+      <c r="A135" s="77"/>
       <c r="B135" s="28"/>
-      <c r="C135" s="23"/>
-      <c r="E135" s="26"/>
+      <c r="C135" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>610</v>
+      </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
       <c r="H135" s="32"/>
@@ -7705,17 +7710,10 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="86"/>
-      <c r="B136" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E136" s="23"/>
+      <c r="A136" s="77"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="23"/>
+      <c r="E136" s="26"/>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="32"/>
@@ -7739,15 +7737,17 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="86"/>
-      <c r="B137" s="52"/>
+      <c r="A137" s="77"/>
+      <c r="B137" s="24" t="s">
+        <v>338</v>
+      </c>
       <c r="C137" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E137" s="24"/>
+        <v>340</v>
+      </c>
+      <c r="E137" s="23"/>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
       <c r="H137" s="32"/>
@@ -7771,13 +7771,13 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="86"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D138" s="24" t="s">
-        <v>344</v>
+      <c r="A138" s="77"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="33"/>
@@ -7803,17 +7803,17 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="86"/>
-      <c r="B139" s="71" t="s">
-        <v>586</v>
-      </c>
-      <c r="C139" s="72"/>
-      <c r="D139" s="71" t="s">
-        <v>345</v>
-      </c>
-      <c r="E139" s="72"/>
+      <c r="A139" s="77"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E139" s="24"/>
       <c r="F139" s="33"/>
-      <c r="G139" s="34"/>
+      <c r="G139" s="33"/>
       <c r="H139" s="32"/>
       <c r="I139" s="8"/>
       <c r="J139" s="2"/>
@@ -7835,15 +7835,15 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="86"/>
-      <c r="B140" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="C140" s="72"/>
-      <c r="D140" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="E140" s="72"/>
+      <c r="A140" s="77"/>
+      <c r="B140" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="C140" s="83"/>
+      <c r="D140" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" s="83"/>
       <c r="F140" s="33"/>
       <c r="G140" s="34"/>
       <c r="H140" s="32"/>
@@ -7867,17 +7867,17 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="86"/>
-      <c r="B141" s="71" t="s">
-        <v>631</v>
-      </c>
-      <c r="C141" s="72"/>
-      <c r="D141" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="E141" s="72"/>
+      <c r="A141" s="77"/>
+      <c r="B141" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C141" s="83"/>
+      <c r="D141" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="E141" s="83"/>
       <c r="F141" s="33"/>
-      <c r="G141" s="32"/>
+      <c r="G141" s="34"/>
       <c r="H141" s="32"/>
       <c r="I141" s="8"/>
       <c r="J141" s="2"/>
@@ -7899,15 +7899,15 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="86"/>
-      <c r="B142" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="C142" s="72"/>
-      <c r="D142" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="E142" s="72"/>
+      <c r="A142" s="77"/>
+      <c r="B142" s="82" t="s">
+        <v>630</v>
+      </c>
+      <c r="C142" s="83"/>
+      <c r="D142" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="E142" s="83"/>
       <c r="F142" s="33"/>
       <c r="G142" s="32"/>
       <c r="H142" s="32"/>
@@ -7931,16 +7931,16 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="86"/>
-      <c r="B143" s="80" t="s">
-        <v>596</v>
-      </c>
-      <c r="C143" s="72"/>
-      <c r="D143" s="115" t="s">
-        <v>649</v>
-      </c>
-      <c r="E143" s="76"/>
-      <c r="F143" s="32"/>
+      <c r="A143" s="77"/>
+      <c r="B143" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C143" s="83"/>
+      <c r="D143" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="E143" s="83"/>
+      <c r="F143" s="33"/>
       <c r="G143" s="32"/>
       <c r="H143" s="32"/>
       <c r="I143" s="8"/>
@@ -7963,15 +7963,15 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="86"/>
-      <c r="B144" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="C144" s="72"/>
-      <c r="D144" s="81" t="s">
-        <v>600</v>
-      </c>
-      <c r="E144" s="72"/>
+      <c r="A144" s="77"/>
+      <c r="B144" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="C144" s="83"/>
+      <c r="D144" s="108" t="s">
+        <v>647</v>
+      </c>
+      <c r="E144" s="86"/>
       <c r="F144" s="32"/>
       <c r="G144" s="32"/>
       <c r="H144" s="32"/>
@@ -7995,13 +7995,15 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="86"/>
-      <c r="B145" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="71"/>
-      <c r="E145" s="72"/>
+      <c r="A145" s="77"/>
+      <c r="B145" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="C145" s="83"/>
+      <c r="D145" s="95" t="s">
+        <v>600</v>
+      </c>
+      <c r="E145" s="83"/>
       <c r="F145" s="32"/>
       <c r="G145" s="32"/>
       <c r="H145" s="32"/>
@@ -8025,16 +8027,16 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="86"/>
-      <c r="B146" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="C146" s="84"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+      <c r="A146" s="77"/>
+      <c r="B146" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="83"/>
+      <c r="D146" s="82"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
       <c r="I146" s="8"/>
       <c r="J146" s="2"/>
       <c r="K146" s="3"/>
@@ -8055,12 +8057,15 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="86"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
+      <c r="A147" s="77"/>
+      <c r="B147" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="C147" s="75"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
       <c r="J147" s="2"/>
@@ -8082,12 +8087,12 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="87"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="10"/>
+      <c r="A148" s="77"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
       <c r="J148" s="2"/>
@@ -8108,16 +8113,15 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="78"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
       <c r="J149" s="2"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -8136,18 +8140,16 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="100" t="s">
-        <v>354</v>
-      </c>
-      <c r="B150" s="83"/>
-      <c r="C150" s="83"/>
-      <c r="D150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="83"/>
-      <c r="I150" s="84"/>
+    <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -8166,16 +8168,18 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
+    <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="B151" s="74"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="74"/>
+      <c r="I151" s="75"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -8194,18 +8198,16 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="B152" s="102"/>
-      <c r="C152" s="102"/>
-      <c r="D152" s="102"/>
-      <c r="E152" s="102"/>
-      <c r="F152" s="102"/>
-      <c r="G152" s="102"/>
-      <c r="H152" s="102"/>
-      <c r="I152" s="73"/>
+    <row r="152" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -8225,17 +8227,17 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="35"/>
-      <c r="B153" s="101" t="s">
-        <v>356</v>
-      </c>
-      <c r="C153" s="102"/>
-      <c r="D153" s="102"/>
-      <c r="E153" s="102"/>
-      <c r="F153" s="102"/>
-      <c r="G153" s="102"/>
-      <c r="H153" s="102"/>
-      <c r="I153" s="73"/>
+      <c r="A153" s="103" t="s">
+        <v>355</v>
+      </c>
+      <c r="B153" s="104"/>
+      <c r="C153" s="104"/>
+      <c r="D153" s="104"/>
+      <c r="E153" s="104"/>
+      <c r="F153" s="104"/>
+      <c r="G153" s="104"/>
+      <c r="H153" s="104"/>
+      <c r="I153" s="91"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8256,16 +8258,16 @@
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="101" t="s">
-        <v>357</v>
-      </c>
-      <c r="C154" s="102"/>
-      <c r="D154" s="102"/>
-      <c r="E154" s="102"/>
-      <c r="F154" s="102"/>
-      <c r="G154" s="102"/>
-      <c r="H154" s="102"/>
-      <c r="I154" s="73"/>
+      <c r="B154" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="C154" s="104"/>
+      <c r="D154" s="104"/>
+      <c r="E154" s="104"/>
+      <c r="F154" s="104"/>
+      <c r="G154" s="104"/>
+      <c r="H154" s="104"/>
+      <c r="I154" s="91"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8286,16 +8288,16 @@
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="101" t="s">
-        <v>358</v>
-      </c>
-      <c r="C155" s="102"/>
-      <c r="D155" s="102"/>
-      <c r="E155" s="102"/>
-      <c r="F155" s="102"/>
-      <c r="G155" s="102"/>
-      <c r="H155" s="102"/>
-      <c r="I155" s="73"/>
+      <c r="B155" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="C155" s="104"/>
+      <c r="D155" s="104"/>
+      <c r="E155" s="104"/>
+      <c r="F155" s="104"/>
+      <c r="G155" s="104"/>
+      <c r="H155" s="104"/>
+      <c r="I155" s="91"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8316,16 +8318,16 @@
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
-      <c r="B156" s="101" t="s">
-        <v>359</v>
-      </c>
-      <c r="C156" s="102"/>
-      <c r="D156" s="102"/>
-      <c r="E156" s="102"/>
-      <c r="F156" s="102"/>
-      <c r="G156" s="102"/>
-      <c r="H156" s="102"/>
-      <c r="I156" s="73"/>
+      <c r="B156" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="C156" s="104"/>
+      <c r="D156" s="104"/>
+      <c r="E156" s="104"/>
+      <c r="F156" s="104"/>
+      <c r="G156" s="104"/>
+      <c r="H156" s="104"/>
+      <c r="I156" s="91"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8346,16 +8348,16 @@
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
-      <c r="B157" s="101" t="s">
-        <v>360</v>
-      </c>
-      <c r="C157" s="102"/>
-      <c r="D157" s="102"/>
-      <c r="E157" s="102"/>
-      <c r="F157" s="102"/>
-      <c r="G157" s="102"/>
-      <c r="H157" s="102"/>
-      <c r="I157" s="73"/>
+      <c r="B157" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C157" s="104"/>
+      <c r="D157" s="104"/>
+      <c r="E157" s="104"/>
+      <c r="F157" s="104"/>
+      <c r="G157" s="104"/>
+      <c r="H157" s="104"/>
+      <c r="I157" s="91"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8376,16 +8378,16 @@
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
-      <c r="B158" s="106" t="s">
-        <v>361</v>
-      </c>
-      <c r="C158" s="102"/>
-      <c r="D158" s="102"/>
-      <c r="E158" s="102"/>
-      <c r="F158" s="102"/>
-      <c r="G158" s="102"/>
-      <c r="H158" s="102"/>
-      <c r="I158" s="73"/>
+      <c r="B158" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="C158" s="104"/>
+      <c r="D158" s="104"/>
+      <c r="E158" s="104"/>
+      <c r="F158" s="104"/>
+      <c r="G158" s="104"/>
+      <c r="H158" s="104"/>
+      <c r="I158" s="91"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8405,17 +8407,17 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="101" t="s">
-        <v>362</v>
-      </c>
-      <c r="B159" s="102"/>
-      <c r="C159" s="102"/>
-      <c r="D159" s="102"/>
-      <c r="E159" s="102"/>
-      <c r="F159" s="102"/>
-      <c r="G159" s="102"/>
-      <c r="H159" s="102"/>
-      <c r="I159" s="73"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="109" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" s="104"/>
+      <c r="D159" s="104"/>
+      <c r="E159" s="104"/>
+      <c r="F159" s="104"/>
+      <c r="G159" s="104"/>
+      <c r="H159" s="104"/>
+      <c r="I159" s="91"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8435,21 +8437,17 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="105"/>
-      <c r="B160" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="D160" s="103" t="s">
-        <v>365</v>
-      </c>
-      <c r="E160" s="102"/>
-      <c r="F160" s="102"/>
-      <c r="G160" s="102"/>
-      <c r="H160" s="102"/>
-      <c r="I160" s="73"/>
+      <c r="A160" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="B160" s="104"/>
+      <c r="C160" s="104"/>
+      <c r="D160" s="104"/>
+      <c r="E160" s="104"/>
+      <c r="F160" s="104"/>
+      <c r="G160" s="104"/>
+      <c r="H160" s="104"/>
+      <c r="I160" s="91"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8469,19 +8467,21 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="95"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D161" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="E161" s="102"/>
-      <c r="F161" s="102"/>
-      <c r="G161" s="102"/>
-      <c r="H161" s="102"/>
-      <c r="I161" s="73"/>
+      <c r="A161" s="107"/>
+      <c r="B161" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="D161" s="105" t="s">
+        <v>365</v>
+      </c>
+      <c r="E161" s="104"/>
+      <c r="F161" s="104"/>
+      <c r="G161" s="104"/>
+      <c r="H161" s="104"/>
+      <c r="I161" s="91"/>
       <c r="J161" s="2"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -8503,17 +8503,17 @@
     <row r="162" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="96"/>
       <c r="B162" s="35"/>
-      <c r="C162" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="D162" s="104" t="s">
-        <v>369</v>
-      </c>
-      <c r="E162" s="102"/>
-      <c r="F162" s="102"/>
-      <c r="G162" s="102"/>
-      <c r="H162" s="102"/>
-      <c r="I162" s="73"/>
+      <c r="C162" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="D162" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="E162" s="104"/>
+      <c r="F162" s="104"/>
+      <c r="G162" s="104"/>
+      <c r="H162" s="104"/>
+      <c r="I162" s="91"/>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -8532,16 +8532,20 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="33"/>
+    <row r="163" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="97"/>
       <c r="B163" s="35"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
+      <c r="C163" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="D163" s="106" t="s">
+        <v>369</v>
+      </c>
+      <c r="E163" s="104"/>
+      <c r="F163" s="104"/>
+      <c r="G163" s="104"/>
+      <c r="H163" s="104"/>
+      <c r="I163" s="91"/>
       <c r="J163" s="2"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -8560,32 +8564,16 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="105"/>
-      <c r="B164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="C164" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="D164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="E164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="F164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="G164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="H164" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="I164" s="38" t="s">
-        <v>372</v>
-      </c>
+    <row r="164" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="33"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="33"/>
+      <c r="I164" s="33"/>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -8604,31 +8592,31 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="95"/>
-      <c r="B165" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="C165" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="D165" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="E165" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="F165" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="G165" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="H165" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="I165" s="41" t="s">
-        <v>380</v>
+    <row r="165" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="107"/>
+      <c r="B165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C165" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="F165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="G165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="I165" s="38" t="s">
+        <v>372</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8648,31 +8636,31 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="95"/>
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="96"/>
       <c r="B166" s="34" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F166" s="34" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G166" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="H166" s="62" t="s">
-        <v>387</v>
+        <v>378</v>
+      </c>
+      <c r="H166" s="40" t="s">
+        <v>379</v>
       </c>
       <c r="I166" s="41" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="3"/>
@@ -8692,31 +8680,31 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="95"/>
+    <row r="167" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="96"/>
       <c r="B167" s="34" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E167" s="34" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F167" s="34" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G167" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H167" s="40" t="s">
-        <v>395</v>
+        <v>386</v>
+      </c>
+      <c r="H167" s="62" t="s">
+        <v>387</v>
       </c>
       <c r="I167" s="41" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8736,26 +8724,32 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="95"/>
+    <row r="168" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="96"/>
       <c r="B168" s="34" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="G168" s="34"/>
-      <c r="H168" s="40"/>
-      <c r="I168" s="42"/>
+        <v>393</v>
+      </c>
+      <c r="G168" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="H168" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="I168" s="41" t="s">
+        <v>396</v>
+      </c>
       <c r="J168" s="2"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
@@ -8774,30 +8768,26 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="95"/>
+    <row r="169" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="96"/>
       <c r="B169" s="34" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E169" s="34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F169" s="34" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G169" s="34"/>
-      <c r="H169" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="I169" s="42" t="s">
-        <v>408</v>
-      </c>
+      <c r="H169" s="40"/>
+      <c r="I169" s="42"/>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -8817,28 +8807,28 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="95"/>
+      <c r="A170" s="96"/>
       <c r="B170" s="34" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F170" s="34" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G170" s="34"/>
       <c r="H170" s="40" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8859,30 +8849,28 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="95"/>
+      <c r="A171" s="96"/>
       <c r="B171" s="34" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F171" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="G171" s="34" t="s">
-        <v>421</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="G171" s="34"/>
       <c r="H171" s="40" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8903,30 +8891,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="95"/>
+      <c r="A172" s="96"/>
       <c r="B172" s="34" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F172" s="34" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H172" s="40" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I172" s="42" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8947,28 +8935,30 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="95"/>
+      <c r="A173" s="96"/>
       <c r="B173" s="34" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F173" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="G173" s="34"/>
+        <v>428</v>
+      </c>
+      <c r="G173" s="34" t="s">
+        <v>429</v>
+      </c>
       <c r="H173" s="40" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8989,30 +8979,28 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="95"/>
+      <c r="A174" s="96"/>
       <c r="B174" s="34" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F174" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="G174" s="34" t="s">
-        <v>444</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="G174" s="34"/>
       <c r="H174" s="40" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -9033,30 +9021,30 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="95"/>
+      <c r="A175" s="96"/>
       <c r="B175" s="34" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H175" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="I175" s="43" t="s">
-        <v>454</v>
+        <v>445</v>
+      </c>
+      <c r="I175" s="42" t="s">
+        <v>446</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -9077,30 +9065,30 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="95"/>
+      <c r="A176" s="96"/>
       <c r="B176" s="34" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D176" s="34" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F176" s="34" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H176" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="I176" s="41" t="s">
-        <v>462</v>
+        <v>453</v>
+      </c>
+      <c r="I176" s="43" t="s">
+        <v>454</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="3"/>
@@ -9121,28 +9109,30 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="95"/>
+      <c r="A177" s="96"/>
       <c r="B177" s="34" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D177" s="34" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F177" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="G177" s="34"/>
+        <v>459</v>
+      </c>
+      <c r="G177" s="34" t="s">
+        <v>460</v>
+      </c>
       <c r="H177" s="40" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="I177" s="41" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="3"/>
@@ -9162,28 +9152,30 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="95"/>
+    <row r="178" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="96"/>
       <c r="B178" s="34" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D178" s="34" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F178" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="G178" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="H178" s="44"/>
-      <c r="I178" s="44"/>
+        <v>467</v>
+      </c>
+      <c r="G178" s="34"/>
+      <c r="H178" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="I178" s="41" t="s">
+        <v>469</v>
+      </c>
       <c r="J178" s="2"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -9203,23 +9195,25 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="95"/>
+      <c r="A179" s="96"/>
       <c r="B179" s="34" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D179" s="34" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F179" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="G179" s="34"/>
+        <v>474</v>
+      </c>
+      <c r="G179" s="34" t="s">
+        <v>475</v>
+      </c>
       <c r="H179" s="44"/>
       <c r="I179" s="44"/>
       <c r="J179" s="2"/>
@@ -9241,25 +9235,23 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="95"/>
+      <c r="A180" s="96"/>
       <c r="B180" s="34" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D180" s="34" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F180" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="G180" s="34" t="s">
-        <v>486</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="G180" s="34"/>
       <c r="H180" s="44"/>
       <c r="I180" s="44"/>
       <c r="J180" s="2"/>
@@ -9281,24 +9273,24 @@
       <c r="Z180" s="3"/>
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="95"/>
+      <c r="A181" s="96"/>
       <c r="B181" s="34" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D181" s="34" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F181" s="34" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G181" s="34" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H181" s="44"/>
       <c r="I181" s="44"/>
@@ -9323,22 +9315,22 @@
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="96"/>
       <c r="B182" s="34" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D182" s="34" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F182" s="34" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G182" s="34" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H182" s="44"/>
       <c r="I182" s="44"/>
@@ -9360,26 +9352,28 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="18"/>
-      <c r="B183" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="D183" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="H183" s="18"/>
-      <c r="I183" s="18"/>
+    <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="97"/>
+      <c r="B183" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="D183" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="G183" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="H183" s="44"/>
+      <c r="I183" s="44"/>
       <c r="J183" s="2"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -9399,23 +9393,25 @@
       <c r="Z183" s="3"/>
     </row>
     <row r="184" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
+      <c r="A184" s="18"/>
       <c r="B184" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
+      <c r="G184" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
       <c r="J184" s="2"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -9434,22 +9430,24 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="18"/>
+    <row r="185" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
       <c r="B185" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D185" s="9"/>
+        <v>505</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>506</v>
+      </c>
       <c r="E185" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
-      <c r="H185" s="18"/>
-      <c r="I185" s="18"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
       <c r="J185" s="2"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -9470,11 +9468,15 @@
     </row>
     <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
+      <c r="B186" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -9498,12 +9500,14 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
+      <c r="E187" s="9" t="s">
+        <v>511</v>
+      </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="18"/>
@@ -9526,7 +9530,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -9556,12 +9560,12 @@
     </row>
     <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="18"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
       <c r="D189" s="9"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="18"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
       <c r="J189" s="2"/>
@@ -9584,7 +9588,7 @@
     </row>
     <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
-      <c r="B190" s="9"/>
+      <c r="B190" s="1"/>
       <c r="C190" s="18"/>
       <c r="D190" s="9"/>
       <c r="E190" s="1"/>
@@ -9611,15 +9615,15 @@
       <c r="Z190" s="3"/>
     </row>
     <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
       <c r="J191" s="2"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
@@ -9668,7 +9672,7 @@
     </row>
     <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="B193" s="3"/>
+      <c r="B193" s="11"/>
       <c r="C193" s="3"/>
       <c r="D193" s="11"/>
       <c r="E193" s="3"/>
@@ -9726,7 +9730,7 @@
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="D195" s="11"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="2"/>
@@ -9756,7 +9760,7 @@
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
-      <c r="F196" s="2"/>
+      <c r="F196" s="3"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -10259,7 +10263,7 @@
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="2"/>
+      <c r="E214" s="3"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
@@ -10762,7 +10766,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="2"/>
+      <c r="D232" s="3"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -11377,7 +11381,7 @@
     <row r="254" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="2"/>
+      <c r="C254" s="3"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -11852,7 +11856,7 @@
     </row>
     <row r="271" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
+      <c r="B271" s="3"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -14762,17 +14766,17 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
+    <row r="375" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
-      <c r="D375" s="3"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
       <c r="G375" s="2"/>
-      <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
+      <c r="H375" s="2"/>
+      <c r="I375" s="2"/>
+      <c r="J375" s="2"/>
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
       <c r="M375" s="3"/>
@@ -14797,7 +14801,7 @@
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
+      <c r="G376" s="2"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
@@ -14848,7 +14852,7 @@
     </row>
     <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
-      <c r="B378" s="3"/>
+      <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -14877,7 +14881,7 @@
     <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
-      <c r="C379" s="3"/>
+      <c r="C379" s="2"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
@@ -15099,32 +15103,32 @@
       <c r="Z386" s="3"/>
     </row>
     <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="11"/>
-      <c r="B387" s="11"/>
-      <c r="C387" s="11"/>
-      <c r="D387" s="11"/>
-      <c r="E387" s="11"/>
-      <c r="F387" s="11"/>
-      <c r="G387" s="11"/>
-      <c r="H387" s="11"/>
-      <c r="I387" s="11"/>
-      <c r="J387" s="11"/>
-      <c r="K387" s="11"/>
-      <c r="L387" s="11"/>
-      <c r="M387" s="11"/>
-      <c r="N387" s="11"/>
-      <c r="O387" s="11"/>
-      <c r="P387" s="11"/>
-      <c r="Q387" s="11"/>
-      <c r="R387" s="11"/>
-      <c r="S387" s="11"/>
-      <c r="T387" s="11"/>
-      <c r="U387" s="11"/>
-      <c r="V387" s="11"/>
-      <c r="W387" s="11"/>
-      <c r="X387" s="11"/>
-      <c r="Y387" s="11"/>
-      <c r="Z387" s="11"/>
+      <c r="A387" s="3"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+      <c r="F387" s="3"/>
+      <c r="G387" s="3"/>
+      <c r="H387" s="3"/>
+      <c r="I387" s="3"/>
+      <c r="J387" s="3"/>
+      <c r="K387" s="3"/>
+      <c r="L387" s="3"/>
+      <c r="M387" s="3"/>
+      <c r="N387" s="3"/>
+      <c r="O387" s="3"/>
+      <c r="P387" s="3"/>
+      <c r="Q387" s="3"/>
+      <c r="R387" s="3"/>
+      <c r="S387" s="3"/>
+      <c r="T387" s="3"/>
+      <c r="U387" s="3"/>
+      <c r="V387" s="3"/>
+      <c r="W387" s="3"/>
+      <c r="X387" s="3"/>
+      <c r="Y387" s="3"/>
+      <c r="Z387" s="3"/>
     </row>
     <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="11"/>
@@ -32374,44 +32378,69 @@
       <c r="Y1003" s="11"/>
       <c r="Z1003" s="11"/>
     </row>
+    <row r="1004" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="11"/>
+      <c r="B1004" s="11"/>
+      <c r="C1004" s="11"/>
+      <c r="D1004" s="11"/>
+      <c r="E1004" s="11"/>
+      <c r="F1004" s="11"/>
+      <c r="G1004" s="11"/>
+      <c r="H1004" s="11"/>
+      <c r="I1004" s="11"/>
+      <c r="J1004" s="11"/>
+      <c r="K1004" s="11"/>
+      <c r="L1004" s="11"/>
+      <c r="M1004" s="11"/>
+      <c r="N1004" s="11"/>
+      <c r="O1004" s="11"/>
+      <c r="P1004" s="11"/>
+      <c r="Q1004" s="11"/>
+      <c r="R1004" s="11"/>
+      <c r="S1004" s="11"/>
+      <c r="T1004" s="11"/>
+      <c r="U1004" s="11"/>
+      <c r="V1004" s="11"/>
+      <c r="W1004" s="11"/>
+      <c r="X1004" s="11"/>
+      <c r="Y1004" s="11"/>
+      <c r="Z1004" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F130:H130"/>
     <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
     <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="B123:C123"/>
     <mergeCell ref="F123:G123"/>
     <mergeCell ref="H123:I123"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H110:I110"/>
     <mergeCell ref="H111:I111"/>
     <mergeCell ref="H112:I112"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="H114:I114"/>
     <mergeCell ref="H115:I115"/>
-    <mergeCell ref="E103:E124"/>
-    <mergeCell ref="F116:G116"/>
     <mergeCell ref="H116:I116"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E104:E125"/>
     <mergeCell ref="F117:G117"/>
     <mergeCell ref="H117:I117"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="H94:I94"/>
     <mergeCell ref="C118:D118"/>
     <mergeCell ref="F118:G118"/>
     <mergeCell ref="H118:I118"/>
-    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="C119:D119"/>
     <mergeCell ref="F119:G119"/>
     <mergeCell ref="H119:I119"/>
     <mergeCell ref="B120:C120"/>
@@ -32419,144 +32448,147 @@
     <mergeCell ref="H120:I120"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="F121:G121"/>
-    <mergeCell ref="A164:A182"/>
-    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="A165:A183"/>
     <mergeCell ref="B155:I155"/>
     <mergeCell ref="B156:I156"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
-    <mergeCell ref="A159:I159"/>
-    <mergeCell ref="D162:I162"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B159:I159"/>
+    <mergeCell ref="A160:I160"/>
+    <mergeCell ref="D163:I163"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
     <mergeCell ref="H87:I87"/>
     <mergeCell ref="H88:I88"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A53:A77"/>
-    <mergeCell ref="A79:A101"/>
-    <mergeCell ref="A103:A127"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A54:A78"/>
+    <mergeCell ref="A80:A102"/>
+    <mergeCell ref="A104:A128"/>
+    <mergeCell ref="A151:I151"/>
+    <mergeCell ref="A153:I153"/>
+    <mergeCell ref="B154:I154"/>
     <mergeCell ref="D161:I161"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="A161:A163"/>
     <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B144:C144"/>
     <mergeCell ref="B140:C140"/>
     <mergeCell ref="D140:E140"/>
     <mergeCell ref="B141:C141"/>
     <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:C142"/>
     <mergeCell ref="D142:E142"/>
     <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A129:A148"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A130:A149"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F98:G98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="E53:E77"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="E54:E78"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E79:E101"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="F70:G70"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E80:E102"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="E28:E52"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="E3:E26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A27:A51"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E27:E51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A28:A52"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0" footer="0"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="78" max="8" man="1"/>
-    <brk id="149" max="16383" man="1"/>
-    <brk id="190" max="16383" man="1"/>
+    <brk id="79" max="8" man="1"/>
+    <brk id="150" max="16383" man="1"/>
+    <brk id="191" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>

--- a/raw_data/Batch_62_Main.xlsx
+++ b/raw_data/Batch_62_Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F6B8E4-3BC4-42D9-AB2F-642B093B0B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8CF057-F572-442E-8D9A-9E694064B8E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="653">
   <si>
     <t>B.TECH II SEMESTER EVEN 2026</t>
   </si>
@@ -699,9 +699,6 @@
     <t>LB9,B10(CI121)-FF4/ASA</t>
   </si>
   <si>
-    <t>LA10,B14(HS111)-FF4/ASY</t>
-  </si>
-  <si>
     <t>TA18(HS111)-TS11/NES</t>
   </si>
   <si>
@@ -1036,9 +1033,6 @@
   </si>
   <si>
     <t>TA16(MA211)-TS8/YG</t>
-  </si>
-  <si>
-    <t>LB11,B12(MA211)-FF2/HPT</t>
   </si>
   <si>
     <t>TB7(GE112)-TS6/GGL</t>
@@ -1637,9 +1631,6 @@
   </si>
   <si>
     <t>LG3,G4(PH211)-CR425/EKY</t>
-  </si>
-  <si>
-    <t>LB11,B12(HS111)-FF1/APR</t>
   </si>
   <si>
     <t>LB3,B4(CI121)-CR325/ANP</t>
@@ -2090,12 +2081,68 @@
   <si>
     <t>PA15,A16(CS121)-CL21,22/ JSM,PTK,PRV,MAY</t>
   </si>
+  <si>
+    <r>
+      <t>LA10,B14(HS111)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CS2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/ASY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LA10,B14(HS111)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CR501</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/ASY</t>
+    </r>
+  </si>
+  <si>
+    <t>LB11,B12(HS111)-CR301/APR</t>
+  </si>
+  <si>
+    <t>LB11,B12(MA211)-G9/HPT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2182,13 +2229,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2426,7 +2466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2484,9 +2524,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2541,16 +2578,15 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2562,7 +2598,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,7 +2608,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2588,7 +2624,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -2620,41 +2656,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2662,7 +2698,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2671,20 +2707,20 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2694,6 +2730,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2917,10 +2956,10 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
+      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2942,16 +2981,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3015,11 +3054,11 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>537</v>
+      <c r="B3" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>10</v>
@@ -3027,10 +3066,10 @@
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="23" t="s">
         <v>13</v>
       </c>
@@ -3059,9 +3098,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="45" t="s">
-        <v>223</v>
+      <c r="A4" s="75"/>
+      <c r="B4" s="44" t="s">
+        <v>649</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>16</v>
@@ -3069,7 +3108,7 @@
       <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
@@ -3099,8 +3138,8 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -3109,8 +3148,8 @@
       <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="44" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -3119,7 +3158,7 @@
       <c r="H5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -3139,27 +3178,27 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -3179,8 +3218,8 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -3189,7 +3228,7 @@
       <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="23" t="s">
         <v>41</v>
       </c>
@@ -3218,8 +3257,8 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -3228,11 +3267,11 @@
       <c r="D8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="23" t="s">
         <v>42</v>
       </c>
@@ -3258,17 +3297,14 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>642</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E9" s="80"/>
+        <v>510</v>
+      </c>
+      <c r="E9" s="78"/>
       <c r="F9" s="23" t="s">
         <v>53</v>
       </c>
@@ -3300,25 +3336,25 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="45" t="s">
-        <v>558</v>
+      <c r="A10" s="75"/>
+      <c r="B10" s="44" t="s">
+        <v>555</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="53" t="s">
-        <v>631</v>
+        <v>511</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="51" t="s">
+        <v>628</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
@@ -3342,26 +3378,26 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="55" t="s">
-        <v>593</v>
+      <c r="E11" s="78"/>
+      <c r="F11" s="53" t="s">
+        <v>590</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>50</v>
@@ -3381,27 +3417,27 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="47" t="s">
-        <v>559</v>
-      </c>
-      <c r="C12" s="55" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="G12" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="G12" s="46" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -3421,9 +3457,9 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="45" t="s">
-        <v>560</v>
+      <c r="A13" s="75"/>
+      <c r="B13" s="44" t="s">
+        <v>557</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>59</v>
@@ -3431,7 +3467,7 @@
       <c r="D13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
         <v>61</v>
@@ -3459,9 +3495,9 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="23" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>63</v>
@@ -3469,7 +3505,7 @@
       <c r="D14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -3495,15 +3531,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>621</v>
-      </c>
-      <c r="E15" s="80"/>
+        <v>548</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="E15" s="78"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -3529,12 +3565,12 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="E16" s="80"/>
+        <v>633</v>
+      </c>
+      <c r="E16" s="78"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -3558,17 +3594,17 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="53" t="s">
-        <v>649</v>
-      </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -3588,21 +3624,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="82" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="82" t="s">
+      <c r="D18" s="81"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="82" t="s">
+      <c r="G18" s="81"/>
+      <c r="H18" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="81"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3622,21 +3658,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="82" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="82" t="s">
+      <c r="D19" s="81"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="88" t="s">
+      <c r="G19" s="81"/>
+      <c r="H19" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="83"/>
+      <c r="I19" s="81"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3656,21 +3692,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="82" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="84" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="84" t="s">
-        <v>602</v>
-      </c>
-      <c r="I20" s="83"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="82" t="s">
+        <v>599</v>
+      </c>
+      <c r="I20" s="81"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="11"/>
@@ -3690,21 +3726,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="84" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="85" t="s">
-        <v>637</v>
-      </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="84" t="s">
-        <v>605</v>
-      </c>
-      <c r="I21" s="83"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G21" s="84"/>
+      <c r="H21" s="82" t="s">
+        <v>602</v>
+      </c>
+      <c r="I21" s="81"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3724,21 +3760,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="85" t="s">
-        <v>640</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="82" t="s">
-        <v>626</v>
-      </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="82" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="83" t="s">
+        <v>637</v>
+      </c>
+      <c r="D22" s="84"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="80" t="s">
+        <v>623</v>
+      </c>
+      <c r="G22" s="81"/>
+      <c r="H22" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3758,21 +3794,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="82" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="82" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="82" t="s">
+      <c r="G23" s="81"/>
+      <c r="H23" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="83"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3792,21 +3828,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="82" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="82" t="s">
+      <c r="D24" s="81"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="82" t="s">
+      <c r="G24" s="81"/>
+      <c r="H24" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="83"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3826,21 +3862,21 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="82" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="82" t="s">
+      <c r="D25" s="81"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="82" t="s">
+      <c r="G25" s="81"/>
+      <c r="H25" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="83"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -3860,17 +3896,17 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="82" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
       <c r="L26" s="11"/>
@@ -3918,10 +3954,10 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3930,7 +3966,7 @@
       <c r="D28" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="77" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="23" t="s">
@@ -3940,7 +3976,7 @@
         <v>92</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>94</v>
@@ -3964,8 +4000,8 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="75"/>
+      <c r="B29" s="46" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -3974,7 +4010,7 @@
       <c r="D29" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="23" t="s">
         <v>98</v>
       </c>
@@ -3982,7 +4018,7 @@
         <v>99</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>112</v>
@@ -4006,8 +4042,8 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -4016,17 +4052,17 @@
       <c r="D30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="G30" s="55" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="G30" s="53" t="s">
         <v>103</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="I30" s="27"/>
+        <v>550</v>
+      </c>
+      <c r="I30" s="26"/>
       <c r="J30" s="2"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -4046,27 +4082,27 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="47" t="s">
+      <c r="A31" s="75"/>
+      <c r="B31" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="53" t="s">
         <v>106</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="23" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>108</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="I31" s="27"/>
+        <v>551</v>
+      </c>
+      <c r="I31" s="26"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -4086,23 +4122,23 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="47" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>546</v>
+      <c r="C32" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="2"/>
@@ -4124,15 +4160,17 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="53" t="s">
-        <v>606</v>
+      <c r="A33" s="75"/>
+      <c r="B33" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>603</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="23" t="s">
         <v>114</v>
       </c>
@@ -4162,22 +4200,22 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="C34" s="26"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="C34" s="25"/>
       <c r="D34" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="23" t="s">
+      <c r="G34" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="H34" s="49"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="23"/>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
@@ -4198,23 +4236,23 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="45" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="E35" s="78"/>
+      <c r="F35" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="E35" s="80"/>
-      <c r="F35" s="23" t="s">
-        <v>517</v>
-      </c>
       <c r="G35" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H35" s="23"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -4234,20 +4272,20 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="45" t="s">
-        <v>563</v>
-      </c>
-      <c r="C36" s="26"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="C36" s="25"/>
       <c r="D36" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="E36" s="80"/>
+        <v>561</v>
+      </c>
+      <c r="E36" s="78"/>
       <c r="F36" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+        <v>547</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="23"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
@@ -4268,20 +4306,20 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="G37" s="26"/>
+        <v>587</v>
+      </c>
+      <c r="G37" s="25"/>
       <c r="H37" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="I37" s="27"/>
+        <v>600</v>
+      </c>
+      <c r="I37" s="26"/>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -4301,15 +4339,15 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="80"/>
+      <c r="E38" s="78"/>
       <c r="F38" s="24" t="s">
         <v>120</v>
       </c>
@@ -4319,7 +4357,7 @@
       <c r="H38" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="27"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4339,15 +4377,15 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="80"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="24" t="s">
         <v>125</v>
       </c>
@@ -4357,7 +4395,7 @@
       <c r="H39" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="27"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -4377,23 +4415,23 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="23" t="s">
         <v>128</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="49"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="48"/>
       <c r="G40" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="56" t="s">
+      <c r="H40" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="27"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -4413,21 +4451,21 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="27"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="24" t="s">
         <v>133</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="I41" s="27"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -4447,16 +4485,16 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="23"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="80"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="23"/>
       <c r="G42" s="24" t="s">
         <v>135</v>
       </c>
       <c r="H42" s="24"/>
-      <c r="I42" s="27"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -4476,17 +4514,17 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4506,21 +4544,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="82" t="s">
+      <c r="D44" s="81"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="83"/>
-      <c r="H44" s="82" t="s">
+      <c r="G44" s="81"/>
+      <c r="H44" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="I44" s="83"/>
+      <c r="I44" s="81"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4540,21 +4578,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="84" t="s">
+      <c r="A45" s="75"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="84" t="s">
-        <v>601</v>
-      </c>
-      <c r="G45" s="83"/>
-      <c r="H45" s="82" t="s">
+      <c r="D45" s="81"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="82" t="s">
+        <v>598</v>
+      </c>
+      <c r="G45" s="81"/>
+      <c r="H45" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="83"/>
+      <c r="I45" s="81"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4574,21 +4612,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="84" t="s">
+      <c r="A46" s="75"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="83"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="84" t="s">
-        <v>599</v>
-      </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84" t="s">
-        <v>597</v>
-      </c>
-      <c r="I46" s="83"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="82" t="s">
+        <v>596</v>
+      </c>
+      <c r="G46" s="81"/>
+      <c r="H46" s="82" t="s">
+        <v>594</v>
+      </c>
+      <c r="I46" s="81"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4608,21 +4646,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="82" t="s">
+      <c r="A47" s="75"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="82" t="s">
-        <v>627</v>
-      </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="85" t="s">
-        <v>644</v>
-      </c>
-      <c r="I47" s="86"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="80" t="s">
+        <v>624</v>
+      </c>
+      <c r="G47" s="81"/>
+      <c r="H47" s="83" t="s">
+        <v>641</v>
+      </c>
+      <c r="I47" s="84"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4642,21 +4680,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="82" t="s">
-        <v>628</v>
-      </c>
-      <c r="D48" s="83"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="82" t="s">
+      <c r="C48" s="80" t="s">
+        <v>625</v>
+      </c>
+      <c r="D48" s="81"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="83"/>
-      <c r="H48" s="82" t="s">
+      <c r="G48" s="81"/>
+      <c r="H48" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="I48" s="83"/>
+      <c r="I48" s="81"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4676,21 +4714,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="82" t="s">
+      <c r="D49" s="81"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="83"/>
-      <c r="H49" s="82" t="s">
+      <c r="G49" s="81"/>
+      <c r="H49" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="I49" s="83"/>
+      <c r="I49" s="81"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4710,21 +4748,21 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="82" t="s">
+      <c r="C50" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="83"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="82" t="s">
+      <c r="D50" s="81"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="G50" s="83"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="I50" s="83"/>
+      <c r="I50" s="81"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4744,17 +4782,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="82" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="I51" s="83"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4774,17 +4812,17 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="95" t="s">
+      <c r="A52" s="76"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="I52" s="83"/>
+      <c r="I52" s="81"/>
       <c r="J52" s="2"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -4832,27 +4870,27 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="74" t="s">
         <v>154</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="79" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="77" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I54" s="23" t="s">
         <v>15</v>
@@ -4876,9 +4914,9 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="23" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>155</v>
@@ -4886,11 +4924,11 @@
       <c r="D55" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="96"/>
-      <c r="F55" s="55" t="s">
+      <c r="E55" s="90"/>
+      <c r="F55" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="53" t="s">
         <v>158</v>
       </c>
       <c r="H55" s="23" t="s">
@@ -4915,9 +4953,9 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="75"/>
       <c r="B56" s="23" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>160</v>
@@ -4925,14 +4963,14 @@
       <c r="D56" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="96"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H56" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="47" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="2"/>
@@ -4954,28 +4992,28 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="96"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="23" t="s">
         <v>165</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H57" s="23" t="s">
         <v>166</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4996,13 +5034,13 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="26"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="96"/>
+      <c r="E58" s="90"/>
       <c r="F58" s="23" t="s">
         <v>116</v>
       </c>
@@ -5013,7 +5051,7 @@
         <v>169</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="3"/>
@@ -5034,20 +5072,20 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="23"/>
-      <c r="D59" s="53" t="s">
-        <v>638</v>
-      </c>
-      <c r="E59" s="96"/>
+      <c r="D59" s="51" t="s">
+        <v>635</v>
+      </c>
+      <c r="E59" s="90"/>
       <c r="F59" s="23" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="2"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -5067,22 +5105,22 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
+      <c r="A60" s="75"/>
       <c r="C60" s="23" t="s">
         <v>171</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="96"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="G60" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="G60" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
       <c r="J60" s="2"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -5102,9 +5140,9 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
+      <c r="A61" s="75"/>
       <c r="B61" s="23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>173</v>
@@ -5112,17 +5150,17 @@
       <c r="D61" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="96"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="G61" s="23" t="s">
         <v>520</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>522</v>
       </c>
       <c r="H61" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="I61" s="26"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="2"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -5142,7 +5180,7 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="23" t="s">
         <v>174</v>
       </c>
@@ -5152,12 +5190,12 @@
       <c r="D62" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="96"/>
+      <c r="E62" s="90"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="I62" s="26"/>
+      <c r="I62" s="25"/>
       <c r="J62" s="2"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -5177,9 +5215,9 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>178</v>
@@ -5187,13 +5225,13 @@
       <c r="D63" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="96"/>
+      <c r="E63" s="90"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I63" s="26"/>
+      <c r="I63" s="25"/>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -5213,7 +5251,7 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="23" t="s">
         <v>181</v>
       </c>
@@ -5223,7 +5261,7 @@
       <c r="D64" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E64" s="96"/>
+      <c r="E64" s="90"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
         <v>186</v>
@@ -5253,14 +5291,14 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-      <c r="B65" s="48" t="s">
-        <v>565</v>
+      <c r="A65" s="75"/>
+      <c r="B65" s="47" t="s">
+        <v>562</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="E65" s="96"/>
+        <v>564</v>
+      </c>
+      <c r="E65" s="90"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
         <v>190</v>
@@ -5288,23 +5326,23 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+      <c r="A66" s="75"/>
       <c r="B66" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="E66" s="96"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
       <c r="J66" s="2"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -5324,12 +5362,12 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="58" t="s">
-        <v>615</v>
-      </c>
-      <c r="E67" s="96"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="56" t="s">
+        <v>612</v>
+      </c>
+      <c r="E67" s="90"/>
       <c r="F67" s="23" t="s">
         <v>193</v>
       </c>
@@ -5357,10 +5395,10 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
+      <c r="A68" s="75"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="27"/>
-      <c r="E68" s="96"/>
+      <c r="C68" s="26"/>
+      <c r="E68" s="90"/>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
@@ -5384,19 +5422,19 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
+      <c r="A69" s="75"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="96"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="87" t="s">
-        <v>585</v>
-      </c>
-      <c r="G69" s="91"/>
-      <c r="H69" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="G69" s="89"/>
+      <c r="H69" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="I69" s="91"/>
+      <c r="I69" s="89"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5416,21 +5454,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
+      <c r="A70" s="75"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="91"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="82" t="s">
+      <c r="D70" s="89"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="G70" s="91"/>
-      <c r="H70" s="82" t="s">
+      <c r="G70" s="89"/>
+      <c r="H70" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="I70" s="91"/>
+      <c r="I70" s="89"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5450,21 +5488,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="77"/>
+      <c r="A71" s="75"/>
       <c r="B71" s="23"/>
-      <c r="C71" s="82" t="s">
+      <c r="C71" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="91"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="82" t="s">
+      <c r="D71" s="89"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="G71" s="91"/>
-      <c r="H71" s="85" t="s">
-        <v>650</v>
-      </c>
-      <c r="I71" s="86"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="I71" s="84"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5484,21 +5522,21 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="77"/>
+      <c r="A72" s="75"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="D72" s="91"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="85" t="s">
-        <v>645</v>
-      </c>
-      <c r="G72" s="86"/>
-      <c r="H72" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="I72" s="91"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="83" t="s">
+        <v>642</v>
+      </c>
+      <c r="G72" s="84"/>
+      <c r="H72" s="82" t="s">
+        <v>544</v>
+      </c>
+      <c r="I72" s="89"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5518,19 +5556,19 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="84" t="s">
+      <c r="C73" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="91"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="82" t="s">
+      <c r="D73" s="89"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="I73" s="91"/>
+      <c r="I73" s="89"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5550,21 +5588,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
+      <c r="A74" s="75"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="D74" s="91"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="82" t="s">
+      <c r="D74" s="89"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="G74" s="91"/>
-      <c r="H74" s="82" t="s">
+      <c r="G74" s="89"/>
+      <c r="H74" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="I74" s="91"/>
+      <c r="I74" s="89"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5584,21 +5622,21 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="82" t="s">
+      <c r="C75" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="D75" s="91"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="90" t="s">
+      <c r="D75" s="89"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="G75" s="91"/>
-      <c r="H75" s="82" t="s">
-        <v>617</v>
-      </c>
-      <c r="I75" s="91"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="I75" s="89"/>
       <c r="J75" s="2"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -5618,19 +5656,19 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
+      <c r="A76" s="75"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="82" t="s">
+      <c r="C76" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="91"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="82" t="s">
+      <c r="D76" s="89"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="G76" s="91"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
       <c r="J76" s="2"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -5650,19 +5688,19 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
+      <c r="A77" s="75"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="82" t="s">
+      <c r="C77" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="D77" s="91"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="82" t="s">
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="G77" s="91"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
       <c r="J77" s="2"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -5682,17 +5720,17 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="90" t="s">
+      <c r="A78" s="76"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="D78" s="91"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
       <c r="J78" s="2"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -5740,7 +5778,7 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="74" t="s">
         <v>214</v>
       </c>
       <c r="B80" s="23" t="s">
@@ -5752,20 +5790,20 @@
       <c r="D80" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="79" t="s">
+      <c r="E80" s="77" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="61" t="s">
-        <v>639</v>
+      <c r="H80" s="59" t="s">
+        <v>636</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5786,9 +5824,9 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="77"/>
+      <c r="A81" s="75"/>
       <c r="B81" s="23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C81" s="23" t="s">
         <v>26</v>
@@ -5796,9 +5834,9 @@
       <c r="D81" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="80"/>
+      <c r="E81" s="78"/>
       <c r="F81" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>17</v>
@@ -5807,7 +5845,7 @@
         <v>215</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5828,9 +5866,9 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="77"/>
+      <c r="A82" s="75"/>
       <c r="B82" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C82" s="23" t="s">
         <v>31</v>
@@ -5838,17 +5876,17 @@
       <c r="D82" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="80"/>
+      <c r="E82" s="78"/>
       <c r="F82" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G82" s="45" t="s">
+      <c r="G82" s="44" t="s">
         <v>29</v>
       </c>
       <c r="H82" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="I82" s="56" t="s">
+      <c r="I82" s="54" t="s">
         <v>218</v>
       </c>
       <c r="J82" s="2"/>
@@ -5870,16 +5908,16 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="77"/>
+      <c r="A83" s="75"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="53" t="s">
         <v>222</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E83" s="80"/>
-      <c r="F83" s="45" t="s">
+      <c r="E83" s="78"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
       <c r="G83" s="23" t="s">
@@ -5888,7 +5926,7 @@
       <c r="H83" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="I83" s="26"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="2"/>
       <c r="K83" s="3"/>
       <c r="L83" s="11"/>
@@ -5908,17 +5946,17 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
+      <c r="A84" s="75"/>
       <c r="B84" s="23" t="s">
         <v>219</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E84" s="80"/>
+        <v>650</v>
+      </c>
+      <c r="E84" s="78"/>
       <c r="F84" s="23" t="s">
         <v>34</v>
       </c>
@@ -5926,9 +5964,9 @@
         <v>40</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="I84" s="26"/>
+        <v>223</v>
+      </c>
+      <c r="I84" s="25"/>
       <c r="J84" s="2"/>
       <c r="K84" s="3"/>
       <c r="L84" s="11"/>
@@ -5948,27 +5986,27 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="C85" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E85" s="78"/>
+      <c r="F85" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="61" t="s">
         <v>525</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E85" s="80"/>
-      <c r="F85" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="63" t="s">
-        <v>527</v>
-      </c>
-      <c r="H85" s="63" t="s">
-        <v>573</v>
-      </c>
-      <c r="I85" s="64"/>
+      <c r="H85" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="I85" s="62"/>
       <c r="J85" s="2"/>
       <c r="K85" s="3"/>
       <c r="L85" s="11"/>
@@ -5988,24 +6026,24 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
+      <c r="A86" s="75"/>
       <c r="B86" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E86" s="98"/>
-      <c r="F86" s="66" t="s">
-        <v>526</v>
-      </c>
-      <c r="G86" s="66" t="s">
-        <v>529</v>
-      </c>
-      <c r="H86" s="66" t="s">
-        <v>622</v>
-      </c>
-      <c r="I86" s="67"/>
+      <c r="F86" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="G86" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="H86" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="I86" s="65"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="11"/>
@@ -6025,25 +6063,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>232</v>
-      </c>
       <c r="E87" s="98"/>
-      <c r="F87" s="66" t="s">
-        <v>528</v>
-      </c>
-      <c r="G87" s="68"/>
-      <c r="H87" s="110" t="s">
-        <v>641</v>
-      </c>
-      <c r="I87" s="111"/>
+      <c r="F87" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="G87" s="66"/>
+      <c r="H87" s="108" t="s">
+        <v>638</v>
+      </c>
+      <c r="I87" s="109"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -6063,23 +6101,23 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
+      <c r="A88" s="75"/>
       <c r="B88" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C88" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="D88" s="46" t="s">
+      <c r="E88" s="98"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="H88" s="92" t="s">
         <v>235</v>
-      </c>
-      <c r="E88" s="98"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66" t="s">
-        <v>624</v>
-      </c>
-      <c r="H88" s="92" t="s">
-        <v>236</v>
       </c>
       <c r="I88" s="93"/>
       <c r="J88" s="2"/>
@@ -6101,25 +6139,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
+      <c r="A89" s="75"/>
       <c r="B89" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C89" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="E89" s="98"/>
+      <c r="F89" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="E89" s="98"/>
-      <c r="F89" s="66" t="s">
+      <c r="G89" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="G89" s="66" t="s">
+      <c r="H89" s="92" t="s">
         <v>240</v>
-      </c>
-      <c r="H89" s="92" t="s">
-        <v>241</v>
       </c>
       <c r="I89" s="93"/>
       <c r="J89" s="2"/>
@@ -6141,23 +6179,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="77"/>
-      <c r="B90" s="55" t="s">
-        <v>571</v>
+      <c r="A90" s="75"/>
+      <c r="B90" s="53" t="s">
+        <v>568</v>
       </c>
       <c r="C90" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E90" s="98"/>
+      <c r="F90" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="E90" s="98"/>
-      <c r="F90" s="66" t="s">
+      <c r="G90" s="65"/>
+      <c r="H90" s="92" t="s">
         <v>243</v>
-      </c>
-      <c r="G90" s="67"/>
-      <c r="H90" s="92" t="s">
-        <v>244</v>
       </c>
       <c r="I90" s="93"/>
       <c r="J90" s="2"/>
@@ -6179,23 +6217,23 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="77"/>
-      <c r="B91" s="53" t="s">
-        <v>643</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>623</v>
-      </c>
-      <c r="D91" s="47" t="s">
-        <v>588</v>
+      <c r="A91" s="75"/>
+      <c r="B91" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>585</v>
       </c>
       <c r="E91" s="98"/>
-      <c r="F91" s="66" t="s">
+      <c r="F91" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" s="65"/>
+      <c r="H91" s="92" t="s">
         <v>245</v>
-      </c>
-      <c r="G91" s="67"/>
-      <c r="H91" s="92" t="s">
-        <v>246</v>
       </c>
       <c r="I91" s="93"/>
       <c r="J91" s="2"/>
@@ -6217,19 +6255,19 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="54"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="23" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E92" s="98"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="I92" s="94"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="I92" s="97"/>
       <c r="J92" s="2"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -6249,17 +6287,17 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="55" t="s">
-        <v>612</v>
+      <c r="A93" s="75"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="53" t="s">
+        <v>609</v>
       </c>
       <c r="E93" s="98"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="100" t="s">
-        <v>598</v>
+      <c r="F93" s="64"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="95" t="s">
+        <v>595</v>
       </c>
       <c r="I93" s="93"/>
       <c r="J93" s="2"/>
@@ -6281,19 +6319,19 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="D94" s="83"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" s="81"/>
       <c r="E94" s="98"/>
       <c r="F94" s="92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G94" s="93"/>
       <c r="H94" s="92" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I94" s="93"/>
       <c r="J94" s="2"/>
@@ -6315,23 +6353,23 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="82" t="s">
-        <v>250</v>
-      </c>
-      <c r="D95" s="83"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" s="81"/>
       <c r="E95" s="98"/>
       <c r="F95" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" s="93"/>
+      <c r="H95" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="I95" s="68"/>
+      <c r="J95" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="G95" s="93"/>
-      <c r="H95" s="69" t="s">
-        <v>646</v>
-      </c>
-      <c r="I95" s="70"/>
-      <c r="J95" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -6351,19 +6389,19 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="D96" s="83"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="80" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="81"/>
       <c r="E96" s="98"/>
       <c r="F96" s="92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G96" s="93"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="2"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -6383,19 +6421,19 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="D97" s="83"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="80" t="s">
+        <v>616</v>
+      </c>
+      <c r="D97" s="81"/>
       <c r="E97" s="98"/>
       <c r="F97" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G97" s="93"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
       <c r="J97" s="2"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -6415,19 +6453,19 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="82" t="s">
+      <c r="A98" s="75"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="81"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="D98" s="83"/>
-      <c r="E98" s="98"/>
-      <c r="F98" s="94" t="s">
-        <v>257</v>
-      </c>
       <c r="G98" s="93"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
       <c r="J98" s="2"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -6447,19 +6485,19 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
+      <c r="A99" s="75"/>
       <c r="B99" s="23"/>
-      <c r="C99" s="82" t="s">
-        <v>629</v>
-      </c>
-      <c r="D99" s="83"/>
+      <c r="C99" s="80" t="s">
+        <v>626</v>
+      </c>
+      <c r="D99" s="81"/>
       <c r="E99" s="98"/>
-      <c r="F99" s="94" t="s">
-        <v>258</v>
+      <c r="F99" s="97" t="s">
+        <v>257</v>
       </c>
       <c r="G99" s="93"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
       <c r="J99" s="2"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -6479,19 +6517,19 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
+      <c r="A100" s="75"/>
       <c r="B100" s="23"/>
-      <c r="C100" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="D100" s="83"/>
+      <c r="C100" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="81"/>
       <c r="E100" s="98"/>
-      <c r="F100" s="110" t="s">
-        <v>648</v>
-      </c>
-      <c r="G100" s="111"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="67"/>
+      <c r="F100" s="108" t="s">
+        <v>645</v>
+      </c>
+      <c r="G100" s="109"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
       <c r="J100" s="2"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -6511,18 +6549,21 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
-      <c r="B101" s="84" t="s">
-        <v>595</v>
-      </c>
-      <c r="C101" s="83"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="82" t="s">
+        <v>592</v>
+      </c>
+      <c r="C101" s="81"/>
+      <c r="D101" s="51" t="s">
+        <v>652</v>
+      </c>
       <c r="E101" s="98"/>
-      <c r="F101" s="100" t="s">
-        <v>260</v>
+      <c r="F101" s="95" t="s">
+        <v>259</v>
       </c>
       <c r="G101" s="93"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -6542,19 +6583,19 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="78"/>
-      <c r="B102" s="88" t="s">
-        <v>584</v>
-      </c>
-      <c r="C102" s="114"/>
-      <c r="D102" s="27"/>
+      <c r="A102" s="76"/>
+      <c r="B102" s="85" t="s">
+        <v>581</v>
+      </c>
+      <c r="C102" s="112"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="99"/>
-      <c r="F102" s="67"/>
+      <c r="F102" s="65"/>
       <c r="G102" s="92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H102" s="93"/>
-      <c r="I102" s="67"/>
+      <c r="I102" s="65"/>
       <c r="J102" s="2"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -6579,10 +6620,10 @@
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="12"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
       <c r="J103" s="2"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -6602,24 +6643,24 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="C104" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="D104" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="E104" s="115" t="s">
+      <c r="A104" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="E104" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="45" t="s">
+      <c r="F104" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G104" s="28"/>
+      <c r="G104" s="27"/>
       <c r="H104" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I104" s="23" t="s">
         <v>90</v>
@@ -6643,25 +6684,25 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
-      <c r="B105" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="E105" s="116"/>
-      <c r="F105" s="45" t="s">
+      <c r="A105" s="75"/>
+      <c r="B105" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="E105" s="114"/>
+      <c r="F105" s="44" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="H105" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>267</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
@@ -6682,28 +6723,28 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
-      <c r="B106" s="29" t="s">
+      <c r="A106" s="75"/>
+      <c r="B106" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D106" s="58" t="s">
+      <c r="C106" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D106" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="E106" s="114"/>
+      <c r="F106" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="E106" s="116"/>
-      <c r="F106" s="45" t="s">
+      <c r="G106" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>271</v>
-      </c>
       <c r="H106" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="I106" s="48" t="s">
-        <v>273</v>
+        <v>232</v>
+      </c>
+      <c r="I106" s="47" t="s">
+        <v>272</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
@@ -6724,25 +6765,25 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
-      <c r="B107" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="C107" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D107" s="29" t="s">
+      <c r="A107" s="75"/>
+      <c r="B107" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E107" s="116"/>
-      <c r="F107" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="H107" s="53" t="s">
-        <v>632</v>
-      </c>
-      <c r="I107" s="29" t="s">
-        <v>279</v>
+      <c r="E107" s="114"/>
+      <c r="F107" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="H107" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
@@ -6763,28 +6804,28 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="77"/>
-      <c r="B108" s="29" t="s">
+      <c r="A108" s="75"/>
+      <c r="B108" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D108" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="C108" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="D108" s="29" t="s">
+      <c r="E108" s="114"/>
+      <c r="F108" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="E108" s="116"/>
-      <c r="F108" s="48" t="s">
+      <c r="G108" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="H108" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H108" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="I108" s="29" t="s">
-        <v>290</v>
+      <c r="I108" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="3"/>
@@ -6805,25 +6846,25 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="77"/>
-      <c r="B109" s="29" t="s">
+      <c r="A109" s="75"/>
+      <c r="B109" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="D109" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="D109" s="29" t="s">
+      <c r="E109" s="114"/>
+      <c r="F109" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="E109" s="116"/>
-      <c r="F109" s="24" t="s">
+      <c r="G109" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="H109" s="23" t="s">
         <v>284</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>285</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="3"/>
@@ -6844,27 +6885,27 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
-      <c r="B110" s="29" t="s">
+      <c r="A110" s="75"/>
+      <c r="B110" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="D110" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="E110" s="114"/>
+      <c r="F110" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="E110" s="116"/>
-      <c r="F110" s="23" t="s">
+      <c r="G110" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="G110" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H110" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="I110" s="60"/>
+      <c r="H110" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="I110" s="58"/>
       <c r="J110" s="2"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -6884,27 +6925,27 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="77"/>
-      <c r="B111" s="29" t="s">
+      <c r="A111" s="75"/>
+      <c r="B111" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="D111" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="E111" s="114"/>
+      <c r="F111" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D111" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="E111" s="116"/>
-      <c r="F111" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="G111" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H111" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="I111" s="83"/>
+      <c r="H111" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="I111" s="81"/>
       <c r="J111" s="2"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -6924,25 +6965,25 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="77"/>
-      <c r="B112" s="58" t="s">
+      <c r="A112" s="75"/>
+      <c r="B112" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="D112" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="E112" s="114"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D112" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="E112" s="116"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="H112" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="I112" s="83"/>
+      <c r="H112" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="I112" s="81"/>
       <c r="J112" s="2"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -6962,24 +7003,24 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
-      <c r="B113" s="58" t="s">
-        <v>574</v>
-      </c>
-      <c r="C113" s="29" t="s">
+      <c r="A113" s="75"/>
+      <c r="B113" s="56" t="s">
+        <v>571</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="114"/>
+      <c r="F113" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="E113" s="116"/>
-      <c r="F113" s="23" t="s">
-        <v>299</v>
-      </c>
       <c r="G113" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="H113" s="84" t="s">
-        <v>607</v>
-      </c>
-      <c r="I113" s="83"/>
+        <v>580</v>
+      </c>
+      <c r="H113" s="82" t="s">
+        <v>604</v>
+      </c>
+      <c r="I113" s="81"/>
       <c r="J113" s="2"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -6999,23 +7040,25 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="77"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="D114" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E114" s="116"/>
+      <c r="A114" s="75"/>
+      <c r="B114" s="51" t="s">
+        <v>639</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="E114" s="114"/>
       <c r="F114" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="G114" s="26"/>
-      <c r="H114" s="84" t="s">
-        <v>312</v>
-      </c>
-      <c r="I114" s="83"/>
+        <v>577</v>
+      </c>
+      <c r="G114" s="25"/>
+      <c r="H114" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="I114" s="81"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -7035,22 +7078,22 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
-      <c r="B115" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="E115" s="116"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E115" s="114"/>
       <c r="F115" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="G115" s="26"/>
-      <c r="H115" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="I115" s="83"/>
+        <v>578</v>
+      </c>
+      <c r="G115" s="25"/>
+      <c r="H115" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="I115" s="81"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -7070,25 +7113,25 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="77"/>
-      <c r="B116" s="29" t="s">
-        <v>576</v>
+      <c r="A116" s="75"/>
+      <c r="B116" s="28" t="s">
+        <v>573</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="E116" s="116"/>
+        <v>586</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="E116" s="114"/>
       <c r="F116" s="24" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="I116" s="83"/>
+      <c r="H116" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="I116" s="81"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -7108,23 +7151,23 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="77"/>
-      <c r="B117" s="29"/>
+      <c r="A117" s="75"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="E117" s="116"/>
-      <c r="F117" s="85" t="s">
-        <v>651</v>
-      </c>
-      <c r="G117" s="86"/>
-      <c r="H117" s="82" t="s">
-        <v>320</v>
-      </c>
-      <c r="I117" s="91"/>
+        <v>606</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E117" s="114"/>
+      <c r="F117" s="83" t="s">
+        <v>648</v>
+      </c>
+      <c r="G117" s="84"/>
+      <c r="H117" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="I117" s="89"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -7144,17 +7187,17 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="77"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="D118" s="91"/>
-      <c r="E118" s="116"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="113"/>
-      <c r="H118" s="82"/>
-      <c r="I118" s="83"/>
+      <c r="A118" s="75"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="89"/>
+      <c r="E118" s="114"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="80"/>
+      <c r="I118" s="81"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7174,19 +7217,19 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="77"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="82" t="s">
+      <c r="A119" s="75"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="D119" s="89"/>
+      <c r="E119" s="114"/>
+      <c r="F119" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="91"/>
-      <c r="E119" s="116"/>
-      <c r="F119" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="G119" s="91"/>
-      <c r="H119" s="82"/>
-      <c r="I119" s="83"/>
+      <c r="G119" s="89"/>
+      <c r="H119" s="80"/>
+      <c r="I119" s="81"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7206,19 +7249,19 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="77"/>
-      <c r="B120" s="82" t="s">
+      <c r="A120" s="75"/>
+      <c r="B120" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" s="89"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="C120" s="91"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="116"/>
-      <c r="F120" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G120" s="91"/>
-      <c r="H120" s="101"/>
-      <c r="I120" s="83"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="81"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7238,19 +7281,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="77"/>
-      <c r="B121" s="82" t="s">
+      <c r="A121" s="75"/>
+      <c r="B121" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="C121" s="89"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="114"/>
+      <c r="F121" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C121" s="91"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="116"/>
-      <c r="F121" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="G121" s="91"/>
-      <c r="H121" s="101"/>
-      <c r="I121" s="83"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="94"/>
+      <c r="I121" s="81"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7270,19 +7313,19 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="77"/>
-      <c r="B122" s="82" t="s">
+      <c r="A122" s="75"/>
+      <c r="B122" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="C122" s="89"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="114"/>
+      <c r="F122" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="C122" s="91"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="116"/>
-      <c r="F122" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="G122" s="91"/>
-      <c r="H122" s="82"/>
-      <c r="I122" s="83"/>
+      <c r="G122" s="89"/>
+      <c r="H122" s="80"/>
+      <c r="I122" s="81"/>
       <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -7302,19 +7345,19 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="77"/>
-      <c r="B123" s="82" t="s">
+      <c r="A123" s="75"/>
+      <c r="B123" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="C123" s="89"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="114"/>
+      <c r="F123" s="88" t="s">
         <v>316</v>
       </c>
-      <c r="C123" s="91"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="116"/>
-      <c r="F123" s="95" t="s">
-        <v>317</v>
-      </c>
-      <c r="G123" s="91"/>
-      <c r="H123" s="82"/>
-      <c r="I123" s="83"/>
+      <c r="G123" s="89"/>
+      <c r="H123" s="80"/>
+      <c r="I123" s="81"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -7334,17 +7377,17 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="77"/>
-      <c r="B124" s="26"/>
+      <c r="A124" s="75"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="23"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="116"/>
-      <c r="F124" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="G124" s="91"/>
-      <c r="H124" s="82"/>
-      <c r="I124" s="91"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="114"/>
+      <c r="F124" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="G124" s="89"/>
+      <c r="H124" s="80"/>
+      <c r="I124" s="89"/>
       <c r="J124" s="2"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -7364,17 +7407,17 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
+      <c r="A125" s="75"/>
       <c r="B125" s="23"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="117"/>
-      <c r="F125" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G125" s="26"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="115"/>
+      <c r="F125" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="G125" s="25"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
       <c r="J125" s="2"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -7394,18 +7437,18 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="77"/>
+      <c r="A126" s="75"/>
       <c r="B126" s="19"/>
       <c r="C126" s="21"/>
-      <c r="D126" s="112" t="s">
+      <c r="D126" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="E126" s="73"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="E126" s="75"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="82" t="s">
-        <v>323</v>
-      </c>
-      <c r="H126" s="91"/>
+      <c r="H126" s="89"/>
       <c r="I126" s="8"/>
       <c r="J126" s="2"/>
       <c r="K126" s="3"/>
@@ -7426,13 +7469,13 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="77"/>
+      <c r="A127" s="75"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
-      <c r="D127" s="112" t="s">
-        <v>324</v>
-      </c>
-      <c r="E127" s="75"/>
+      <c r="D127" s="110" t="s">
+        <v>323</v>
+      </c>
+      <c r="E127" s="73"/>
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -7456,13 +7499,13 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="78"/>
+      <c r="A128" s="76"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="82" t="s">
-        <v>325</v>
-      </c>
-      <c r="E128" s="91"/>
+      <c r="D128" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="E128" s="89"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -7514,18 +7557,18 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="76" t="s">
+      <c r="A130" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="C130" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="E130" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E130" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F130" s="103"/>
-      <c r="G130" s="104"/>
-      <c r="H130" s="91"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="102"/>
+      <c r="H130" s="89"/>
       <c r="I130" s="8"/>
       <c r="J130" s="2"/>
       <c r="K130" s="3"/>
@@ -7546,22 +7589,19 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="77"/>
-      <c r="B131" s="25" t="s">
-        <v>536</v>
-      </c>
+      <c r="A131" s="75"/>
       <c r="C131" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="23" t="s">
-        <v>330</v>
-      </c>
       <c r="E131" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="32"/>
+        <v>278</v>
+      </c>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="31"/>
       <c r="I131" s="8"/>
       <c r="J131" s="2"/>
       <c r="K131" s="3"/>
@@ -7582,22 +7622,22 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="77"/>
+      <c r="A132" s="75"/>
       <c r="B132" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>165</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="32"/>
+        <v>331</v>
+      </c>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="31"/>
       <c r="I132" s="8"/>
       <c r="J132" s="2"/>
       <c r="K132" s="3"/>
@@ -7618,16 +7658,19 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="77"/>
+      <c r="A133" s="75"/>
       <c r="B133" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="E133" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="E133" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="31"/>
       <c r="I133" s="8"/>
       <c r="J133" s="2"/>
       <c r="K133" s="3"/>
@@ -7648,17 +7691,17 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="77"/>
+      <c r="A134" s="75"/>
       <c r="B134" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" s="28"/>
+        <v>334</v>
+      </c>
+      <c r="C134" s="27"/>
       <c r="D134" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="32"/>
+        <v>340</v>
+      </c>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="31"/>
       <c r="I134" s="8"/>
       <c r="J134" s="2"/>
       <c r="K134" s="3"/>
@@ -7679,17 +7722,20 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="77"/>
-      <c r="B135" s="28"/>
+      <c r="A135" s="75"/>
+      <c r="B135" s="27"/>
       <c r="C135" s="23" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>342</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="32"/>
+        <v>607</v>
+      </c>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="31"/>
       <c r="I135" s="8"/>
       <c r="J135" s="2"/>
       <c r="K135" s="3"/>
@@ -7710,13 +7756,13 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="77"/>
-      <c r="B136" s="28"/>
+      <c r="A136" s="75"/>
+      <c r="B136" s="27"/>
       <c r="C136" s="23"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="32"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="31"/>
       <c r="I136" s="8"/>
       <c r="J136" s="2"/>
       <c r="K136" s="3"/>
@@ -7737,20 +7783,20 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="77"/>
+      <c r="A137" s="75"/>
       <c r="B137" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E137" s="23"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="32"/>
+        <v>337</v>
+      </c>
+      <c r="D137" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="E137" s="116"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="31"/>
       <c r="I137" s="8"/>
       <c r="J137" s="2"/>
       <c r="K137" s="3"/>
@@ -7771,18 +7817,18 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="77"/>
-      <c r="B138" s="52"/>
+      <c r="A138" s="75"/>
+      <c r="B138" s="50"/>
       <c r="C138" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="32"/>
+        <v>339</v>
+      </c>
+      <c r="D138" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" s="116"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="31"/>
       <c r="I138" s="8"/>
       <c r="J138" s="2"/>
       <c r="K138" s="3"/>
@@ -7803,18 +7849,18 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="77"/>
-      <c r="B139" s="26"/>
+      <c r="A139" s="75"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="32"/>
+        <v>341</v>
+      </c>
+      <c r="D139" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="E139" s="116"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="31"/>
       <c r="I139" s="8"/>
       <c r="J139" s="2"/>
       <c r="K139" s="3"/>
@@ -7835,18 +7881,18 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="77"/>
-      <c r="B140" s="82" t="s">
-        <v>586</v>
-      </c>
-      <c r="C140" s="83"/>
-      <c r="D140" s="82" t="s">
-        <v>345</v>
-      </c>
-      <c r="E140" s="83"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="32"/>
+      <c r="A140" s="75"/>
+      <c r="B140" s="80" t="s">
+        <v>583</v>
+      </c>
+      <c r="C140" s="81"/>
+      <c r="D140" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="E140" s="81"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="31"/>
       <c r="I140" s="8"/>
       <c r="J140" s="2"/>
       <c r="K140" s="3"/>
@@ -7867,18 +7913,18 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="77"/>
-      <c r="B141" s="82" t="s">
-        <v>346</v>
-      </c>
-      <c r="C141" s="83"/>
-      <c r="D141" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="E141" s="83"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="32"/>
+      <c r="A141" s="75"/>
+      <c r="B141" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C141" s="81"/>
+      <c r="D141" s="106" t="s">
+        <v>644</v>
+      </c>
+      <c r="E141" s="84"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="31"/>
       <c r="I141" s="8"/>
       <c r="J141" s="2"/>
       <c r="K141" s="3"/>
@@ -7899,18 +7945,18 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="77"/>
-      <c r="B142" s="82" t="s">
-        <v>630</v>
-      </c>
-      <c r="C142" s="83"/>
-      <c r="D142" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="E142" s="83"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
+      <c r="A142" s="75"/>
+      <c r="B142" s="80" t="s">
+        <v>627</v>
+      </c>
+      <c r="C142" s="81"/>
+      <c r="D142" s="88" t="s">
+        <v>597</v>
+      </c>
+      <c r="E142" s="81"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
       <c r="I142" s="8"/>
       <c r="J142" s="2"/>
       <c r="K142" s="3"/>
@@ -7931,18 +7977,16 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="77"/>
-      <c r="B143" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="C143" s="83"/>
-      <c r="D143" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="E143" s="83"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
+      <c r="A143" s="75"/>
+      <c r="B143" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143" s="81"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
       <c r="I143" s="8"/>
       <c r="J143" s="2"/>
       <c r="K143" s="3"/>
@@ -7963,18 +8007,16 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="77"/>
-      <c r="B144" s="84" t="s">
-        <v>596</v>
-      </c>
-      <c r="C144" s="83"/>
-      <c r="D144" s="108" t="s">
-        <v>647</v>
-      </c>
-      <c r="E144" s="86"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="32"/>
+      <c r="A144" s="75"/>
+      <c r="B144" s="82" t="s">
+        <v>593</v>
+      </c>
+      <c r="C144" s="81"/>
+      <c r="D144" s="106"/>
+      <c r="E144" s="84"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
       <c r="I144" s="8"/>
       <c r="J144" s="2"/>
       <c r="K144" s="3"/>
@@ -7995,18 +8037,16 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="77"/>
-      <c r="B145" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="C145" s="83"/>
-      <c r="D145" s="95" t="s">
-        <v>600</v>
-      </c>
-      <c r="E145" s="83"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
+      <c r="A145" s="75"/>
+      <c r="B145" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="81"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
       <c r="I145" s="8"/>
       <c r="J145" s="2"/>
       <c r="K145" s="3"/>
@@ -8027,16 +8067,16 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="77"/>
-      <c r="B146" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="C146" s="83"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
+      <c r="A146" s="75"/>
+      <c r="B146" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="C146" s="81"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
       <c r="I146" s="8"/>
       <c r="J146" s="2"/>
       <c r="K146" s="3"/>
@@ -8057,11 +8097,11 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="77"/>
-      <c r="B147" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="C147" s="75"/>
+      <c r="A147" s="75"/>
+      <c r="B147" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="73"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="8"/>
@@ -8087,7 +8127,7 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="77"/>
+      <c r="A148" s="75"/>
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -8114,7 +8154,7 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="78"/>
+      <c r="A149" s="76"/>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="10"/>
@@ -8169,17 +8209,17 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="B151" s="74"/>
-      <c r="C151" s="74"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74"/>
-      <c r="F151" s="74"/>
-      <c r="G151" s="74"/>
-      <c r="H151" s="74"/>
-      <c r="I151" s="75"/>
+      <c r="A151" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="72"/>
+      <c r="C151" s="72"/>
+      <c r="D151" s="72"/>
+      <c r="E151" s="72"/>
+      <c r="F151" s="72"/>
+      <c r="G151" s="72"/>
+      <c r="H151" s="72"/>
+      <c r="I151" s="73"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -8227,17 +8267,17 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="103" t="s">
-        <v>355</v>
-      </c>
-      <c r="B153" s="104"/>
-      <c r="C153" s="104"/>
-      <c r="D153" s="104"/>
-      <c r="E153" s="104"/>
-      <c r="F153" s="104"/>
-      <c r="G153" s="104"/>
-      <c r="H153" s="104"/>
-      <c r="I153" s="91"/>
+      <c r="A153" s="101" t="s">
+        <v>353</v>
+      </c>
+      <c r="B153" s="102"/>
+      <c r="C153" s="102"/>
+      <c r="D153" s="102"/>
+      <c r="E153" s="102"/>
+      <c r="F153" s="102"/>
+      <c r="G153" s="102"/>
+      <c r="H153" s="102"/>
+      <c r="I153" s="89"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8257,17 +8297,17 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
-      <c r="B154" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="C154" s="104"/>
-      <c r="D154" s="104"/>
-      <c r="E154" s="104"/>
-      <c r="F154" s="104"/>
-      <c r="G154" s="104"/>
-      <c r="H154" s="104"/>
-      <c r="I154" s="91"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="101" t="s">
+        <v>354</v>
+      </c>
+      <c r="C154" s="102"/>
+      <c r="D154" s="102"/>
+      <c r="E154" s="102"/>
+      <c r="F154" s="102"/>
+      <c r="G154" s="102"/>
+      <c r="H154" s="102"/>
+      <c r="I154" s="89"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8287,17 +8327,17 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
-      <c r="B155" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="C155" s="104"/>
-      <c r="D155" s="104"/>
-      <c r="E155" s="104"/>
-      <c r="F155" s="104"/>
-      <c r="G155" s="104"/>
-      <c r="H155" s="104"/>
-      <c r="I155" s="91"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" s="102"/>
+      <c r="D155" s="102"/>
+      <c r="E155" s="102"/>
+      <c r="F155" s="102"/>
+      <c r="G155" s="102"/>
+      <c r="H155" s="102"/>
+      <c r="I155" s="89"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8317,17 +8357,17 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="C156" s="104"/>
-      <c r="D156" s="104"/>
-      <c r="E156" s="104"/>
-      <c r="F156" s="104"/>
-      <c r="G156" s="104"/>
-      <c r="H156" s="104"/>
-      <c r="I156" s="91"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="101" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156" s="102"/>
+      <c r="D156" s="102"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="102"/>
+      <c r="H156" s="102"/>
+      <c r="I156" s="89"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8347,17 +8387,17 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
-      <c r="B157" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
-      <c r="F157" s="104"/>
-      <c r="G157" s="104"/>
-      <c r="H157" s="104"/>
-      <c r="I157" s="91"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="101" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" s="102"/>
+      <c r="D157" s="102"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="102"/>
+      <c r="G157" s="102"/>
+      <c r="H157" s="102"/>
+      <c r="I157" s="89"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8377,17 +8417,17 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="35"/>
-      <c r="B158" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="C158" s="104"/>
-      <c r="D158" s="104"/>
-      <c r="E158" s="104"/>
-      <c r="F158" s="104"/>
-      <c r="G158" s="104"/>
-      <c r="H158" s="104"/>
-      <c r="I158" s="91"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="101" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="102"/>
+      <c r="D158" s="102"/>
+      <c r="E158" s="102"/>
+      <c r="F158" s="102"/>
+      <c r="G158" s="102"/>
+      <c r="H158" s="102"/>
+      <c r="I158" s="89"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8407,17 +8447,17 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
-      <c r="B159" s="109" t="s">
-        <v>361</v>
-      </c>
-      <c r="C159" s="104"/>
-      <c r="D159" s="104"/>
-      <c r="E159" s="104"/>
-      <c r="F159" s="104"/>
-      <c r="G159" s="104"/>
-      <c r="H159" s="104"/>
-      <c r="I159" s="91"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="107" t="s">
+        <v>359</v>
+      </c>
+      <c r="C159" s="102"/>
+      <c r="D159" s="102"/>
+      <c r="E159" s="102"/>
+      <c r="F159" s="102"/>
+      <c r="G159" s="102"/>
+      <c r="H159" s="102"/>
+      <c r="I159" s="89"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8437,17 +8477,17 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="B160" s="104"/>
-      <c r="C160" s="104"/>
-      <c r="D160" s="104"/>
-      <c r="E160" s="104"/>
-      <c r="F160" s="104"/>
-      <c r="G160" s="104"/>
-      <c r="H160" s="104"/>
-      <c r="I160" s="91"/>
+      <c r="A160" s="101" t="s">
+        <v>360</v>
+      </c>
+      <c r="B160" s="102"/>
+      <c r="C160" s="102"/>
+      <c r="D160" s="102"/>
+      <c r="E160" s="102"/>
+      <c r="F160" s="102"/>
+      <c r="G160" s="102"/>
+      <c r="H160" s="102"/>
+      <c r="I160" s="89"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8467,21 +8507,21 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="107"/>
-      <c r="B161" s="35" t="s">
+      <c r="A161" s="105"/>
+      <c r="B161" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D161" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="C161" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="D161" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="E161" s="104"/>
-      <c r="F161" s="104"/>
-      <c r="G161" s="104"/>
-      <c r="H161" s="104"/>
-      <c r="I161" s="91"/>
+      <c r="E161" s="102"/>
+      <c r="F161" s="102"/>
+      <c r="G161" s="102"/>
+      <c r="H161" s="102"/>
+      <c r="I161" s="89"/>
       <c r="J161" s="2"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -8501,19 +8541,19 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="96"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D162" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="E162" s="104"/>
-      <c r="F162" s="104"/>
-      <c r="G162" s="104"/>
-      <c r="H162" s="104"/>
-      <c r="I162" s="91"/>
+      <c r="A162" s="90"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="D162" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="E162" s="102"/>
+      <c r="F162" s="102"/>
+      <c r="G162" s="102"/>
+      <c r="H162" s="102"/>
+      <c r="I162" s="89"/>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -8533,19 +8573,19 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="97"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="D163" s="106" t="s">
-        <v>369</v>
-      </c>
-      <c r="E163" s="104"/>
-      <c r="F163" s="104"/>
-      <c r="G163" s="104"/>
-      <c r="H163" s="104"/>
-      <c r="I163" s="91"/>
+      <c r="A163" s="91"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D163" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="E163" s="102"/>
+      <c r="F163" s="102"/>
+      <c r="G163" s="102"/>
+      <c r="H163" s="102"/>
+      <c r="I163" s="89"/>
       <c r="J163" s="2"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -8565,15 +8605,15 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="33"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="33"/>
+      <c r="A164" s="32"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -8593,30 +8633,30 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="107"/>
-      <c r="B165" s="38" t="s">
+      <c r="A165" s="105"/>
+      <c r="B165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="G165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H165" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="I165" s="37" t="s">
         <v>370</v>
-      </c>
-      <c r="C165" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="D165" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="E165" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="F165" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="G165" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="H165" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="I165" s="38" t="s">
-        <v>372</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8637,30 +8677,30 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="96"/>
-      <c r="B166" s="34" t="s">
+      <c r="A166" s="90"/>
+      <c r="B166" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D166" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="C166" s="34" t="s">
+      <c r="E166" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="F166" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="E166" s="34" t="s">
+      <c r="G166" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="F166" s="34" t="s">
+      <c r="H166" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="G166" s="34" t="s">
+      <c r="I166" s="40" t="s">
         <v>378</v>
-      </c>
-      <c r="H166" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="I166" s="41" t="s">
-        <v>380</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="3"/>
@@ -8681,30 +8721,30 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="96"/>
-      <c r="B167" s="34" t="s">
+      <c r="A167" s="90"/>
+      <c r="B167" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D167" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="E167" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="F167" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="E167" s="34" t="s">
+      <c r="G167" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="F167" s="34" t="s">
+      <c r="H167" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="G167" s="34" t="s">
+      <c r="I167" s="40" t="s">
         <v>386</v>
-      </c>
-      <c r="H167" s="62" t="s">
-        <v>387</v>
-      </c>
-      <c r="I167" s="41" t="s">
-        <v>388</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8725,30 +8765,30 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="96"/>
-      <c r="B168" s="34" t="s">
+      <c r="A168" s="90"/>
+      <c r="B168" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="D168" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="C168" s="34" t="s">
+      <c r="E168" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="F168" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="E168" s="34" t="s">
+      <c r="G168" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="F168" s="34" t="s">
+      <c r="H168" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="G168" s="34" t="s">
+      <c r="I168" s="40" t="s">
         <v>394</v>
-      </c>
-      <c r="H168" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="I168" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="3"/>
@@ -8769,25 +8809,25 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="96"/>
-      <c r="B169" s="34" t="s">
+      <c r="A169" s="90"/>
+      <c r="B169" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D169" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="C169" s="34" t="s">
+      <c r="E169" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="F169" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="E169" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="F169" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="G169" s="34"/>
-      <c r="H169" s="40"/>
-      <c r="I169" s="42"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="39"/>
+      <c r="I169" s="41"/>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -8807,28 +8847,28 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="96"/>
-      <c r="B170" s="34" t="s">
+      <c r="A170" s="90"/>
+      <c r="B170" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D170" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="C170" s="34" t="s">
+      <c r="E170" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="F170" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="E170" s="34" t="s">
+      <c r="G170" s="33"/>
+      <c r="H170" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="F170" s="34" t="s">
+      <c r="I170" s="41" t="s">
         <v>406</v>
-      </c>
-      <c r="G170" s="34"/>
-      <c r="H170" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="I170" s="42" t="s">
-        <v>408</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8849,28 +8889,28 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="96"/>
-      <c r="B171" s="34" t="s">
+      <c r="A171" s="90"/>
+      <c r="B171" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="D171" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C171" s="34" t="s">
+      <c r="E171" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="F171" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="E171" s="34" t="s">
+      <c r="G171" s="33"/>
+      <c r="H171" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="F171" s="34" t="s">
+      <c r="I171" s="41" t="s">
         <v>413</v>
-      </c>
-      <c r="G171" s="34"/>
-      <c r="H171" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="I171" s="42" t="s">
-        <v>415</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8891,30 +8931,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="96"/>
-      <c r="B172" s="34" t="s">
+      <c r="A172" s="90"/>
+      <c r="B172" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D172" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="C172" s="34" t="s">
+      <c r="E172" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="F172" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="G172" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="F172" s="34" t="s">
+      <c r="H172" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="G172" s="34" t="s">
+      <c r="I172" s="41" t="s">
         <v>421</v>
-      </c>
-      <c r="H172" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="I172" s="42" t="s">
-        <v>423</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8935,30 +8975,30 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="96"/>
-      <c r="B173" s="34" t="s">
+      <c r="A173" s="90"/>
+      <c r="B173" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D173" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="C173" s="34" t="s">
+      <c r="E173" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="F173" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="E173" s="34" t="s">
+      <c r="G173" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="F173" s="34" t="s">
+      <c r="H173" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="G173" s="34" t="s">
+      <c r="I173" s="41" t="s">
         <v>429</v>
-      </c>
-      <c r="H173" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="I173" s="42" t="s">
-        <v>431</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8979,28 +9019,28 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="96"/>
-      <c r="B174" s="34" t="s">
+      <c r="A174" s="90"/>
+      <c r="B174" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="D174" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="C174" s="34" t="s">
+      <c r="E174" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="F174" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="E174" s="34" t="s">
+      <c r="G174" s="33"/>
+      <c r="H174" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="F174" s="34" t="s">
+      <c r="I174" s="41" t="s">
         <v>436</v>
-      </c>
-      <c r="G174" s="34"/>
-      <c r="H174" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="I174" s="42" t="s">
-        <v>438</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -9021,30 +9061,30 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="96"/>
-      <c r="B175" s="34" t="s">
+      <c r="A175" s="90"/>
+      <c r="B175" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="D175" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C175" s="34" t="s">
+      <c r="E175" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="F175" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="E175" s="34" t="s">
+      <c r="G175" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="F175" s="34" t="s">
+      <c r="H175" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="G175" s="34" t="s">
+      <c r="I175" s="41" t="s">
         <v>444</v>
-      </c>
-      <c r="H175" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="I175" s="42" t="s">
-        <v>446</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -9065,30 +9105,30 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="96"/>
-      <c r="B176" s="34" t="s">
+      <c r="A176" s="90"/>
+      <c r="B176" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="D176" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="C176" s="34" t="s">
+      <c r="E176" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="D176" s="34" t="s">
+      <c r="F176" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="E176" s="34" t="s">
+      <c r="G176" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="F176" s="34" t="s">
+      <c r="H176" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="G176" s="34" t="s">
+      <c r="I176" s="42" t="s">
         <v>452</v>
-      </c>
-      <c r="H176" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="I176" s="43" t="s">
-        <v>454</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="3"/>
@@ -9109,30 +9149,30 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="96"/>
-      <c r="B177" s="34" t="s">
+      <c r="A177" s="90"/>
+      <c r="B177" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="D177" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="C177" s="34" t="s">
+      <c r="E177" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="F177" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="E177" s="34" t="s">
+      <c r="G177" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="F177" s="34" t="s">
+      <c r="H177" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="G177" s="34" t="s">
+      <c r="I177" s="40" t="s">
         <v>460</v>
-      </c>
-      <c r="H177" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="I177" s="41" t="s">
-        <v>462</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="3"/>
@@ -9153,28 +9193,28 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="96"/>
-      <c r="B178" s="34" t="s">
+      <c r="A178" s="90"/>
+      <c r="B178" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D178" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="C178" s="34" t="s">
+      <c r="E178" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="F178" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="E178" s="34" t="s">
+      <c r="G178" s="33"/>
+      <c r="H178" s="39" t="s">
         <v>466</v>
       </c>
-      <c r="F178" s="34" t="s">
+      <c r="I178" s="40" t="s">
         <v>467</v>
-      </c>
-      <c r="G178" s="34"/>
-      <c r="H178" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="I178" s="41" t="s">
-        <v>469</v>
       </c>
       <c r="J178" s="2"/>
       <c r="K178" s="3"/>
@@ -9195,27 +9235,27 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="96"/>
-      <c r="B179" s="34" t="s">
+      <c r="A179" s="90"/>
+      <c r="B179" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D179" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="C179" s="34" t="s">
+      <c r="E179" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D179" s="34" t="s">
+      <c r="F179" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="E179" s="34" t="s">
+      <c r="G179" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="F179" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="G179" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="H179" s="44"/>
-      <c r="I179" s="44"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
       <c r="J179" s="2"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -9235,25 +9275,25 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="96"/>
-      <c r="B180" s="34" t="s">
+      <c r="A180" s="90"/>
+      <c r="B180" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="D180" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="C180" s="34" t="s">
+      <c r="E180" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="F180" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="E180" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="F180" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="G180" s="34"/>
-      <c r="H180" s="44"/>
-      <c r="I180" s="44"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="43"/>
       <c r="J180" s="2"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -9273,27 +9313,27 @@
       <c r="Z180" s="3"/>
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="96"/>
-      <c r="B181" s="34" t="s">
+      <c r="A181" s="90"/>
+      <c r="B181" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="D181" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="C181" s="34" t="s">
+      <c r="E181" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="D181" s="34" t="s">
+      <c r="F181" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="E181" s="34" t="s">
+      <c r="G181" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="F181" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="G181" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="H181" s="44"/>
-      <c r="I181" s="44"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="43"/>
       <c r="J181" s="2"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -9313,27 +9353,27 @@
       <c r="Z181" s="3"/>
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="96"/>
-      <c r="B182" s="34" t="s">
+      <c r="A182" s="90"/>
+      <c r="B182" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D182" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="C182" s="34" t="s">
+      <c r="E182" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="D182" s="34" t="s">
+      <c r="F182" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="E182" s="34" t="s">
+      <c r="G182" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F182" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="G182" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="H182" s="44"/>
-      <c r="I182" s="44"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
       <c r="J182" s="2"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -9353,27 +9393,27 @@
       <c r="Z182" s="3"/>
     </row>
     <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="97"/>
-      <c r="B183" s="34" t="s">
+      <c r="A183" s="91"/>
+      <c r="B183" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="D183" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="C183" s="34" t="s">
+      <c r="E183" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D183" s="34" t="s">
+      <c r="F183" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="E183" s="34" t="s">
+      <c r="G183" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="F183" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="G183" s="34" t="s">
-        <v>498</v>
-      </c>
-      <c r="H183" s="44"/>
-      <c r="I183" s="44"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43"/>
       <c r="J183" s="2"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -9395,20 +9435,20 @@
     <row r="184" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
       <c r="B184" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D184" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="E184" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H184" s="18"/>
       <c r="I184" s="18"/>
@@ -9433,16 +9473,16 @@
     <row r="185" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="E185" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -9469,14 +9509,14 @@
     <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -9506,7 +9546,7 @@
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
@@ -32407,7 +32447,7 @@
       <c r="Z1004" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="174">
+  <mergeCells count="177">
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="F130:H130"/>
     <mergeCell ref="B145:C145"/>
@@ -32455,6 +32495,7 @@
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
     <mergeCell ref="A165:A183"/>
     <mergeCell ref="B155:I155"/>
     <mergeCell ref="B156:I156"/>
@@ -32497,7 +32538,9 @@
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="A130:A149"/>
-    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
     <mergeCell ref="G102:H102"/>
     <mergeCell ref="H75:I75"/>
     <mergeCell ref="F71:G71"/>
@@ -32516,6 +32559,11 @@
     <mergeCell ref="F97:G97"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="E80:E102"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="C24:D24"/>
@@ -32525,15 +32573,10 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H71:I71"/>
     <mergeCell ref="E54:E78"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E80:E102"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="C20:D20"/>
